--- a/capiq_data/in_process_data/IQ108856.xlsx
+++ b/capiq_data/in_process_data/IQ108856.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02496EAC-1353-4C1C-A2C5-505F87C09246}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{985DA44B-E7EE-43BF-9B5F-6A8EC34411D0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"e926bad6-25d0-4339-9eed-c53cd287c4a6"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"e0b878ed-9b1d-4939-ac9c-df99dee381ca"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$82</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$82</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$82</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$82</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$82</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$82</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$82</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$82</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$82</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$82</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$82</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$82</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$82</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$82</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$82</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$82</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$82</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$82</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$82</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$82</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$82</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$82</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$82</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$82</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$82</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$82</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,126 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ12001</t>
+  </si>
+  <si>
+    <t>FQ22001</t>
+  </si>
+  <si>
+    <t>FQ32001</t>
+  </si>
+  <si>
+    <t>FQ42001</t>
+  </si>
+  <si>
+    <t>FQ12002</t>
+  </si>
+  <si>
+    <t>FQ22002</t>
+  </si>
+  <si>
+    <t>FQ32002</t>
+  </si>
+  <si>
+    <t>FQ42002</t>
+  </si>
+  <si>
+    <t>FQ12003</t>
+  </si>
+  <si>
+    <t>FQ22003</t>
+  </si>
+  <si>
+    <t>FQ32003</t>
+  </si>
+  <si>
+    <t>FQ42003</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
+  </si>
+  <si>
+    <t>FQ42010</t>
   </si>
   <si>
     <t>FQ12011</t>
@@ -639,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,120 +853,120 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40574</v>
+        <v>36922</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>2605</v>
+        <v>141</v>
       </c>
       <c r="D2">
-        <v>32302</v>
+        <v>12398</v>
       </c>
       <c r="E2">
-        <v>16552</v>
+        <v>6001</v>
       </c>
       <c r="F2">
-        <v>7973</v>
+        <v>3339</v>
       </c>
       <c r="G2">
-        <v>51404</v>
+        <v>22639</v>
       </c>
       <c r="H2">
-        <v>119933</v>
+        <v>33379</v>
       </c>
       <c r="I2">
-        <v>13453</v>
+        <v>4094</v>
       </c>
       <c r="J2">
-        <v>17088</v>
+        <v>3037</v>
       </c>
       <c r="K2">
-        <v>1141</v>
+        <v>2321</v>
       </c>
       <c r="L2">
-        <v>-3710</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>-138</v>
+        <v>-541</v>
       </c>
       <c r="N2">
-        <v>43610</v>
+        <v>15225</v>
       </c>
       <c r="O2">
-        <v>78386</v>
+        <v>19243</v>
       </c>
       <c r="P2">
-        <v>20469</v>
+        <v>5358</v>
       </c>
       <c r="Q2">
-        <v>-995</v>
+        <v>-1118</v>
       </c>
       <c r="R2">
-        <v>40574</v>
+        <v>36922</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
       <c r="T2">
-        <v>41547</v>
+        <v>14136</v>
       </c>
       <c r="U2">
-        <v>9934</v>
+        <v>2297</v>
       </c>
       <c r="V2">
-        <v>3070</v>
+        <v>-523</v>
       </c>
       <c r="W2">
-        <v>-175</v>
+        <v>-155</v>
       </c>
       <c r="X2">
-        <v>-3702</v>
+        <v>-368</v>
       </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>34</v>
+        <v>-69</v>
       </c>
       <c r="AA2">
-        <v>2605</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40663</v>
+        <v>37011</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>2304</v>
+        <v>47</v>
       </c>
       <c r="D3">
-        <v>31632</v>
+        <v>11668</v>
       </c>
       <c r="E3">
-        <v>18621</v>
+        <v>5686</v>
       </c>
       <c r="F3">
-        <v>7800</v>
+        <v>2930</v>
       </c>
       <c r="G3">
-        <v>56075</v>
+        <v>22744</v>
       </c>
       <c r="H3">
-        <v>125127</v>
+        <v>33585</v>
       </c>
       <c r="I3">
-        <v>14222</v>
+        <v>3888</v>
       </c>
       <c r="J3">
-        <v>14575</v>
+        <v>2843</v>
       </c>
       <c r="K3">
-        <v>3904</v>
+        <v>3221</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -855,81 +975,81 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>51370</v>
+        <v>15666</v>
       </c>
       <c r="O3">
-        <v>83332</v>
+        <v>19488</v>
       </c>
       <c r="P3">
-        <v>22981</v>
+        <v>6064</v>
       </c>
       <c r="Q3">
-        <v>2804</v>
+        <v>1309</v>
       </c>
       <c r="R3">
-        <v>40663</v>
+        <v>37011</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>41795</v>
+        <v>14097</v>
       </c>
       <c r="U3">
-        <v>12738</v>
+        <v>3606</v>
       </c>
       <c r="V3">
-        <v>3962</v>
+        <v>1211</v>
       </c>
       <c r="W3">
-        <v>-182</v>
+        <v>-155</v>
       </c>
       <c r="X3">
-        <v>61</v>
+        <v>396</v>
       </c>
       <c r="Y3">
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>23</v>
+        <v>-4</v>
       </c>
       <c r="AA3">
-        <v>2304</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40755</v>
+        <v>37103</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>1926</v>
+        <v>123</v>
       </c>
       <c r="D4">
-        <v>31189</v>
+        <v>10284</v>
       </c>
       <c r="E4">
-        <v>18121</v>
+        <v>4900</v>
       </c>
       <c r="F4">
-        <v>7288</v>
+        <v>2664</v>
       </c>
       <c r="G4">
-        <v>56279</v>
+        <v>20962</v>
       </c>
       <c r="H4">
-        <v>124917</v>
+        <v>32374</v>
       </c>
       <c r="I4">
-        <v>14489</v>
+        <v>3238</v>
       </c>
       <c r="J4">
-        <v>19097</v>
+        <v>3511</v>
       </c>
       <c r="K4">
-        <v>3343</v>
+        <v>2012</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -938,81 +1058,81 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>48938</v>
+        <v>13950</v>
       </c>
       <c r="O4">
-        <v>85699</v>
+        <v>18505</v>
       </c>
       <c r="P4">
-        <v>25763</v>
+        <v>5523</v>
       </c>
       <c r="Q4">
-        <v>215</v>
+        <v>-879</v>
       </c>
       <c r="R4">
-        <v>40755</v>
+        <v>37103</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>39218</v>
+        <v>13869</v>
       </c>
       <c r="U4">
-        <v>12953</v>
+        <v>2727</v>
       </c>
       <c r="V4">
-        <v>3207</v>
+        <v>168</v>
       </c>
       <c r="W4">
-        <v>-248</v>
+        <v>-156</v>
       </c>
       <c r="X4">
-        <v>-2081</v>
+        <v>-738</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>2</v>
+        <v>56</v>
       </c>
       <c r="AA4">
-        <v>1926</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40847</v>
+        <v>37195</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>239</v>
+        <v>97</v>
       </c>
       <c r="D5">
-        <v>32122</v>
+        <v>10876</v>
       </c>
       <c r="E5">
-        <v>18224</v>
+        <v>4488</v>
       </c>
       <c r="F5">
-        <v>6868</v>
+        <v>2799</v>
       </c>
       <c r="G5">
-        <v>51021</v>
+        <v>21305</v>
       </c>
       <c r="H5">
-        <v>129517</v>
+        <v>32584</v>
       </c>
       <c r="I5">
-        <v>14750</v>
+        <v>3791</v>
       </c>
       <c r="J5">
-        <v>22622</v>
+        <v>3729</v>
       </c>
       <c r="K5">
-        <v>3738</v>
+        <v>1618</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1021,164 +1141,164 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>50442</v>
+        <v>13964</v>
       </c>
       <c r="O5">
-        <v>90513</v>
+        <v>18631</v>
       </c>
       <c r="P5">
-        <v>30705</v>
+        <v>5451</v>
       </c>
       <c r="Q5">
-        <v>-4910</v>
+        <v>1470</v>
       </c>
       <c r="R5">
-        <v>40847</v>
+        <v>37195</v>
       </c>
       <c r="S5">
-        <v>349600</v>
+        <v>86200</v>
       </c>
       <c r="T5">
-        <v>39004</v>
+        <v>13953</v>
       </c>
       <c r="U5">
-        <v>7543</v>
+        <v>4197</v>
       </c>
       <c r="V5">
-        <v>2400</v>
+        <v>1717</v>
       </c>
       <c r="W5">
-        <v>-239</v>
+        <v>-155</v>
       </c>
       <c r="X5">
-        <v>4156</v>
+        <v>-520</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>-87</v>
+        <v>325</v>
       </c>
       <c r="AA5">
-        <v>239</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40939</v>
+        <v>37287</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>1468</v>
+        <v>484</v>
       </c>
       <c r="D6">
-        <v>30036</v>
+        <v>11383</v>
       </c>
       <c r="E6">
-        <v>15892</v>
+        <v>4134</v>
       </c>
       <c r="F6">
-        <v>6757</v>
+        <v>3027</v>
       </c>
       <c r="G6">
-        <v>48749</v>
+        <v>23236</v>
       </c>
       <c r="H6">
-        <v>126596</v>
+        <v>33588</v>
       </c>
       <c r="I6">
-        <v>12375</v>
+        <v>3602</v>
       </c>
       <c r="J6">
-        <v>25517</v>
+        <v>4528</v>
       </c>
       <c r="K6">
-        <v>1097</v>
+        <v>1462</v>
       </c>
       <c r="L6">
-        <v>-2607</v>
+        <v>-212</v>
       </c>
       <c r="M6">
-        <v>-100</v>
+        <v>-139</v>
       </c>
       <c r="N6">
-        <v>44293</v>
+        <v>13881</v>
       </c>
       <c r="O6">
-        <v>87024</v>
+        <v>19376</v>
       </c>
       <c r="P6">
-        <v>30955</v>
+        <v>5990</v>
       </c>
       <c r="Q6">
-        <v>70</v>
+        <v>2786</v>
       </c>
       <c r="R6">
-        <v>40939</v>
+        <v>37287</v>
       </c>
       <c r="S6">
         <v>0</v>
       </c>
       <c r="T6">
-        <v>39572</v>
+        <v>14212</v>
       </c>
       <c r="U6">
-        <v>8113</v>
+        <v>6983</v>
       </c>
       <c r="V6">
-        <v>1193</v>
+        <v>1721</v>
       </c>
       <c r="W6">
-        <v>-244</v>
+        <v>-156</v>
       </c>
       <c r="X6">
-        <v>-372</v>
+        <v>507</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>96</v>
+        <v>817</v>
       </c>
       <c r="AA6">
-        <v>1468</v>
+        <v>484</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>41029</v>
+        <v>37376</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>1593</v>
+        <v>252</v>
       </c>
       <c r="D7">
-        <v>30693</v>
+        <v>10621</v>
       </c>
       <c r="E7">
-        <v>16609</v>
+        <v>3936</v>
       </c>
       <c r="F7">
-        <v>7152</v>
+        <v>3026</v>
       </c>
       <c r="G7">
-        <v>49689</v>
+        <v>23855</v>
       </c>
       <c r="H7">
-        <v>127689</v>
+        <v>34280</v>
       </c>
       <c r="I7">
-        <v>12900</v>
+        <v>3584</v>
       </c>
       <c r="J7">
-        <v>25869</v>
+        <v>4442</v>
       </c>
       <c r="K7">
-        <v>906</v>
+        <v>1618</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -1187,81 +1307,81 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>42799</v>
+        <v>13832</v>
       </c>
       <c r="O7">
-        <v>85992</v>
+        <v>19319</v>
       </c>
       <c r="P7">
-        <v>30121</v>
+        <v>6060</v>
       </c>
       <c r="Q7">
-        <v>198</v>
+        <v>1758</v>
       </c>
       <c r="R7">
-        <v>41029</v>
+        <v>37376</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>41697</v>
+        <v>14961</v>
       </c>
       <c r="U7">
-        <v>8311</v>
+        <v>8741</v>
       </c>
       <c r="V7">
-        <v>2473</v>
+        <v>2063</v>
       </c>
       <c r="W7">
-        <v>-251</v>
+        <v>-155</v>
       </c>
       <c r="X7">
-        <v>-1008</v>
+        <v>-107</v>
       </c>
       <c r="Y7">
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>-315</v>
+        <v>12</v>
       </c>
       <c r="AA7">
-        <v>1593</v>
+        <v>252</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41121</v>
+        <v>37468</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>-8857</v>
+        <v>-2029</v>
       </c>
       <c r="D8">
-        <v>29669</v>
+        <v>16536</v>
       </c>
       <c r="E8">
-        <v>15686</v>
+        <v>8171</v>
       </c>
       <c r="F8">
-        <v>6849</v>
+        <v>4075</v>
       </c>
       <c r="G8">
-        <v>50237</v>
+        <v>36358</v>
       </c>
       <c r="H8">
-        <v>117556</v>
+        <v>70912</v>
       </c>
       <c r="I8">
-        <v>12554</v>
+        <v>6699</v>
       </c>
       <c r="J8">
-        <v>24100</v>
+        <v>6388</v>
       </c>
       <c r="K8">
-        <v>1105</v>
+        <v>2003</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -1270,81 +1390,81 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>44919</v>
+        <v>24912</v>
       </c>
       <c r="O8">
-        <v>85546</v>
+        <v>34571</v>
       </c>
       <c r="P8">
-        <v>29781</v>
+        <v>8391</v>
       </c>
       <c r="Q8">
-        <v>1198</v>
+        <v>2351</v>
       </c>
       <c r="R8">
-        <v>41121</v>
+        <v>37468</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>32010</v>
+        <v>36341</v>
       </c>
       <c r="U8">
-        <v>9509</v>
+        <v>11092</v>
       </c>
       <c r="V8">
-        <v>2846</v>
+        <v>158</v>
       </c>
       <c r="W8">
-        <v>-260</v>
+        <v>-245</v>
       </c>
       <c r="X8">
-        <v>-823</v>
+        <v>-959</v>
       </c>
       <c r="Y8">
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>-58</v>
+        <v>81</v>
       </c>
       <c r="AA8">
-        <v>-8857</v>
+        <v>-2029</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41213</v>
+        <v>37560</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>-6854</v>
+        <v>390</v>
       </c>
       <c r="D9">
-        <v>29959</v>
+        <v>18048</v>
       </c>
       <c r="E9">
-        <v>16407</v>
+        <v>8456</v>
       </c>
       <c r="F9">
-        <v>7054</v>
+        <v>4815</v>
       </c>
       <c r="G9">
-        <v>50637</v>
+        <v>36075</v>
       </c>
       <c r="H9">
-        <v>108768</v>
+        <v>70710</v>
       </c>
       <c r="I9">
-        <v>13350</v>
+        <v>7012</v>
       </c>
       <c r="J9">
-        <v>21789</v>
+        <v>6035</v>
       </c>
       <c r="K9">
-        <v>438</v>
+        <v>1271</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -1353,164 +1473,164 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>46666</v>
+        <v>24310</v>
       </c>
       <c r="O9">
-        <v>85935</v>
+        <v>34448</v>
       </c>
       <c r="P9">
-        <v>28465</v>
+        <v>7828</v>
       </c>
       <c r="Q9">
-        <v>1792</v>
+        <v>100</v>
       </c>
       <c r="R9">
-        <v>41213</v>
+        <v>37560</v>
       </c>
       <c r="S9">
-        <v>331800</v>
+        <v>141000</v>
       </c>
       <c r="T9">
-        <v>22833</v>
+        <v>36262</v>
       </c>
       <c r="U9">
-        <v>10601</v>
+        <v>11192</v>
       </c>
       <c r="V9">
-        <v>4059</v>
+        <v>1502</v>
       </c>
       <c r="W9">
-        <v>-260</v>
+        <v>-245</v>
       </c>
       <c r="X9">
-        <v>-1657</v>
+        <v>-1008</v>
       </c>
       <c r="Y9">
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>-33</v>
+        <v>-1</v>
       </c>
       <c r="AA9">
-        <v>-6854</v>
+        <v>390</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41305</v>
+        <v>37652</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>1232</v>
+        <v>721</v>
       </c>
       <c r="D10">
-        <v>28359</v>
+        <v>17877</v>
       </c>
       <c r="E10">
-        <v>14236</v>
+        <v>7866</v>
       </c>
       <c r="F10">
-        <v>6422</v>
+        <v>4736</v>
       </c>
       <c r="G10">
-        <v>49552</v>
+        <v>37663</v>
       </c>
       <c r="H10">
-        <v>106701</v>
+        <v>72093</v>
       </c>
       <c r="I10">
-        <v>11660</v>
+        <v>6334</v>
       </c>
       <c r="J10">
-        <v>21752</v>
+        <v>6187</v>
       </c>
       <c r="K10">
-        <v>819</v>
+        <v>3033</v>
       </c>
       <c r="L10">
-        <v>-105</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>-114</v>
+        <v>-7</v>
       </c>
       <c r="N10">
-        <v>44386</v>
+        <v>25197</v>
       </c>
       <c r="O10">
-        <v>83411</v>
+        <v>35624</v>
       </c>
       <c r="P10">
-        <v>28246</v>
+        <v>9220</v>
       </c>
       <c r="Q10">
-        <v>1288</v>
+        <v>1449</v>
       </c>
       <c r="R10">
-        <v>41305</v>
+        <v>37652</v>
       </c>
       <c r="S10">
         <v>0</v>
       </c>
       <c r="T10">
-        <v>23290</v>
+        <v>36469</v>
       </c>
       <c r="U10">
-        <v>11589</v>
+        <v>12641</v>
       </c>
       <c r="V10">
-        <v>2562</v>
+        <v>647</v>
       </c>
       <c r="W10">
-        <v>-258</v>
+        <v>-245</v>
       </c>
       <c r="X10">
-        <v>-630</v>
+        <v>1131</v>
       </c>
       <c r="Y10">
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>-138</v>
+        <v>157</v>
       </c>
       <c r="AA10">
-        <v>1232</v>
+        <v>721</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41394</v>
+        <v>37741</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>1077</v>
+        <v>659</v>
       </c>
       <c r="D11">
-        <v>27582</v>
+        <v>17983</v>
       </c>
       <c r="E11">
-        <v>14606</v>
+        <v>7900</v>
       </c>
       <c r="F11">
-        <v>6527</v>
+        <v>4880</v>
       </c>
       <c r="G11">
-        <v>49571</v>
+        <v>38439</v>
       </c>
       <c r="H11">
-        <v>106254</v>
+        <v>72839</v>
       </c>
       <c r="I11">
-        <v>12313</v>
+        <v>7052</v>
       </c>
       <c r="J11">
-        <v>19863</v>
+        <v>6726</v>
       </c>
       <c r="K11">
-        <v>766</v>
+        <v>1075</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -1519,81 +1639,81 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>44658</v>
+        <v>25179</v>
       </c>
       <c r="O11">
-        <v>82322</v>
+        <v>35947</v>
       </c>
       <c r="P11">
-        <v>26801</v>
+        <v>8471</v>
       </c>
       <c r="Q11">
-        <v>651</v>
+        <v>835</v>
       </c>
       <c r="R11">
-        <v>41394</v>
+        <v>37741</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>23932</v>
+        <v>36892</v>
       </c>
       <c r="U11">
-        <v>12540</v>
+        <v>13476</v>
       </c>
       <c r="V11">
-        <v>3556</v>
+        <v>2559</v>
       </c>
       <c r="W11">
-        <v>-283</v>
+        <v>-244</v>
       </c>
       <c r="X11">
-        <v>-2351</v>
+        <v>-1227</v>
       </c>
       <c r="Y11">
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>233</v>
+        <v>-33</v>
       </c>
       <c r="AA11">
-        <v>1077</v>
+        <v>659</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41486</v>
+        <v>37833</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>1390</v>
+        <v>297</v>
       </c>
       <c r="D12">
-        <v>27226</v>
+        <v>17348</v>
       </c>
       <c r="E12">
-        <v>14336</v>
+        <v>7629</v>
       </c>
       <c r="F12">
-        <v>6367</v>
+        <v>4538</v>
       </c>
       <c r="G12">
-        <v>49958</v>
+        <v>37248</v>
       </c>
       <c r="H12">
-        <v>105800</v>
+        <v>71539</v>
       </c>
       <c r="I12">
-        <v>13293</v>
+        <v>7557</v>
       </c>
       <c r="J12">
-        <v>17268</v>
+        <v>6508</v>
       </c>
       <c r="K12">
-        <v>367</v>
+        <v>997</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -1602,81 +1722,81 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>46012</v>
+        <v>24097</v>
       </c>
       <c r="O12">
-        <v>80822</v>
+        <v>34673</v>
       </c>
       <c r="P12">
-        <v>24892</v>
+        <v>7786</v>
       </c>
       <c r="Q12">
-        <v>11</v>
+        <v>-565</v>
       </c>
       <c r="R12">
-        <v>41486</v>
+        <v>37833</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
-        <v>24978</v>
+        <v>36866</v>
       </c>
       <c r="U12">
-        <v>12451</v>
+        <v>12911</v>
       </c>
       <c r="V12">
-        <v>2674</v>
+        <v>468</v>
       </c>
       <c r="W12">
-        <v>-280</v>
+        <v>-244</v>
       </c>
       <c r="X12">
-        <v>-2002</v>
+        <v>-782</v>
       </c>
       <c r="Y12">
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>-14</v>
+        <v>147</v>
       </c>
       <c r="AA12">
-        <v>1390</v>
+        <v>297</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41578</v>
+        <v>37925</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>1414</v>
+        <v>862</v>
       </c>
       <c r="D13">
-        <v>29131</v>
+        <v>19853</v>
       </c>
       <c r="E13">
-        <v>15876</v>
+        <v>8921</v>
       </c>
       <c r="F13">
-        <v>6472</v>
+        <v>5049</v>
       </c>
       <c r="G13">
-        <v>50364</v>
+        <v>40954</v>
       </c>
       <c r="H13">
-        <v>105676</v>
+        <v>74716</v>
       </c>
       <c r="I13">
-        <v>14019</v>
+        <v>9285</v>
       </c>
       <c r="J13">
-        <v>16715</v>
+        <v>6494</v>
       </c>
       <c r="K13">
-        <v>385</v>
+        <v>799</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -1685,164 +1805,164 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>45521</v>
+        <v>25469</v>
       </c>
       <c r="O13">
-        <v>78020</v>
+        <v>36970</v>
       </c>
       <c r="P13">
-        <v>22694</v>
+        <v>7574</v>
       </c>
       <c r="Q13">
-        <v>-1088</v>
+        <v>1277</v>
       </c>
       <c r="R13">
-        <v>41578</v>
+        <v>37925</v>
       </c>
       <c r="S13">
-        <v>317500</v>
+        <v>142000</v>
       </c>
       <c r="T13">
-        <v>27656</v>
+        <v>37746</v>
       </c>
       <c r="U13">
-        <v>11466</v>
+        <v>14188</v>
       </c>
       <c r="V13">
-        <v>2816</v>
+        <v>2383</v>
       </c>
       <c r="W13">
-        <v>-284</v>
+        <v>-244</v>
       </c>
       <c r="X13">
-        <v>-2960</v>
+        <v>-671</v>
       </c>
       <c r="Y13">
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>-171</v>
+        <v>8</v>
       </c>
       <c r="AA13">
-        <v>1414</v>
+        <v>862</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41670</v>
+        <v>38017</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>1425</v>
+        <v>936</v>
       </c>
       <c r="D14">
-        <v>28154</v>
+        <v>19514</v>
       </c>
       <c r="E14">
-        <v>13492</v>
+        <v>8321</v>
       </c>
       <c r="F14">
-        <v>6479</v>
+        <v>4823</v>
       </c>
       <c r="G14">
-        <v>50684</v>
+        <v>39543</v>
       </c>
       <c r="H14">
-        <v>105025</v>
+        <v>73308</v>
       </c>
       <c r="I14">
-        <v>12640</v>
+        <v>6970</v>
       </c>
       <c r="J14">
-        <v>18087</v>
+        <v>6544</v>
       </c>
       <c r="K14">
-        <v>739</v>
+        <v>719</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>-89</v>
       </c>
       <c r="M14">
-        <v>-45</v>
+        <v>-151</v>
       </c>
       <c r="N14">
-        <v>43611</v>
+        <v>24710</v>
       </c>
       <c r="O14">
-        <v>76876</v>
+        <v>35040</v>
       </c>
       <c r="P14">
-        <v>24708</v>
+        <v>7381</v>
       </c>
       <c r="Q14">
-        <v>4002</v>
+        <v>-612</v>
       </c>
       <c r="R14">
-        <v>41670</v>
+        <v>38017</v>
       </c>
       <c r="S14">
         <v>0</v>
       </c>
       <c r="T14">
-        <v>28149</v>
+        <v>38268</v>
       </c>
       <c r="U14">
-        <v>15414</v>
+        <v>13576</v>
       </c>
       <c r="V14">
-        <v>2990</v>
+        <v>148</v>
       </c>
       <c r="W14">
-        <v>-278</v>
+        <v>-244</v>
       </c>
       <c r="X14">
-        <v>1229</v>
+        <v>-461</v>
       </c>
       <c r="Y14">
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>330</v>
+        <v>218</v>
       </c>
       <c r="AA14">
-        <v>1425</v>
+        <v>936</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41759</v>
+        <v>38107</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>1273</v>
+        <v>884</v>
       </c>
       <c r="D15">
-        <v>27309</v>
+        <v>20113</v>
       </c>
       <c r="E15">
-        <v>14288</v>
+        <v>8530</v>
       </c>
       <c r="F15">
-        <v>6605</v>
+        <v>4931</v>
       </c>
       <c r="G15">
-        <v>49883</v>
+        <v>40603</v>
       </c>
       <c r="H15">
-        <v>103972</v>
+        <v>74924</v>
       </c>
       <c r="I15">
-        <v>13521</v>
+        <v>8268</v>
       </c>
       <c r="J15">
-        <v>17301</v>
+        <v>6453</v>
       </c>
       <c r="K15">
-        <v>812</v>
+        <v>687</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1851,81 +1971,81 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>43280</v>
+        <v>25814</v>
       </c>
       <c r="O15">
-        <v>75390</v>
+        <v>36076</v>
       </c>
       <c r="P15">
-        <v>22697</v>
+        <v>7256</v>
       </c>
       <c r="Q15">
-        <v>-1069</v>
+        <v>1078</v>
       </c>
       <c r="R15">
-        <v>41759</v>
+        <v>38107</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15">
-        <v>28582</v>
+        <v>38848</v>
       </c>
       <c r="U15">
-        <v>14249</v>
+        <v>14654</v>
       </c>
       <c r="V15">
-        <v>2995</v>
+        <v>2634</v>
       </c>
       <c r="W15">
-        <v>-298</v>
+        <v>-244</v>
       </c>
       <c r="X15">
-        <v>-3087</v>
+        <v>-617</v>
       </c>
       <c r="Y15">
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>-237</v>
+        <v>8</v>
       </c>
       <c r="AA15">
-        <v>1273</v>
+        <v>884</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41851</v>
+        <v>38199</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>985</v>
+        <v>586</v>
       </c>
       <c r="D16">
-        <v>27585</v>
+        <v>18889</v>
       </c>
       <c r="E16">
-        <v>14198</v>
+        <v>8465</v>
       </c>
       <c r="F16">
-        <v>6611</v>
+        <v>4344</v>
       </c>
       <c r="G16">
-        <v>49287</v>
+        <v>40712</v>
       </c>
       <c r="H16">
-        <v>103170</v>
+        <v>74381</v>
       </c>
       <c r="I16">
-        <v>15141</v>
+        <v>8483</v>
       </c>
       <c r="J16">
-        <v>17233</v>
+        <v>4907</v>
       </c>
       <c r="K16">
-        <v>817</v>
+        <v>629</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1934,81 +2054,81 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>42476</v>
+        <v>26778</v>
       </c>
       <c r="O16">
-        <v>74268</v>
+        <v>35670</v>
       </c>
       <c r="P16">
-        <v>19938</v>
+        <v>7119</v>
       </c>
       <c r="Q16">
-        <v>-622</v>
+        <v>-669</v>
       </c>
       <c r="R16">
-        <v>41851</v>
+        <v>38199</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16">
-        <v>28902</v>
+        <v>38711</v>
       </c>
       <c r="U16">
-        <v>13612</v>
+        <v>13985</v>
       </c>
       <c r="V16">
-        <v>3647</v>
+        <v>319</v>
       </c>
       <c r="W16">
-        <v>-299</v>
+        <v>-244</v>
       </c>
       <c r="X16">
-        <v>-3465</v>
+        <v>-614</v>
       </c>
       <c r="Y16">
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>124</v>
+        <v>48</v>
       </c>
       <c r="AA16">
-        <v>985</v>
+        <v>586</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41943</v>
+        <v>38291</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>1330</v>
+        <v>1091</v>
       </c>
       <c r="D17">
-        <v>28406</v>
+        <v>21389</v>
       </c>
       <c r="E17">
-        <v>13832</v>
+        <v>10226</v>
       </c>
       <c r="F17">
-        <v>6981</v>
+        <v>4996</v>
       </c>
       <c r="G17">
-        <v>50145</v>
+        <v>42901</v>
       </c>
       <c r="H17">
-        <v>103206</v>
+        <v>76138</v>
       </c>
       <c r="I17">
-        <v>15903</v>
+        <v>9377</v>
       </c>
       <c r="J17">
-        <v>16094</v>
+        <v>4623</v>
       </c>
       <c r="K17">
-        <v>129</v>
+        <v>650</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -2017,164 +2137,164 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>43735</v>
+        <v>28588</v>
       </c>
       <c r="O17">
-        <v>76079</v>
+        <v>38574</v>
       </c>
       <c r="P17">
-        <v>19580</v>
+        <v>7134</v>
       </c>
       <c r="Q17">
-        <v>659</v>
+        <v>-1322</v>
       </c>
       <c r="R17">
-        <v>41943</v>
+        <v>38291</v>
       </c>
       <c r="S17">
-        <v>302000</v>
+        <v>151000</v>
       </c>
       <c r="T17">
-        <v>27127</v>
+        <v>37564</v>
       </c>
       <c r="U17">
-        <v>14181</v>
+        <v>12663</v>
       </c>
       <c r="V17">
-        <v>2701</v>
+        <v>1987</v>
       </c>
       <c r="W17">
-        <v>-309</v>
+        <v>-240</v>
       </c>
       <c r="X17">
-        <v>-1248</v>
+        <v>-2467</v>
       </c>
       <c r="Y17">
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="AA17">
-        <v>1330</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42035</v>
+        <v>38383</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>1366</v>
+        <v>943</v>
       </c>
       <c r="D18">
-        <v>13858</v>
+        <v>21454</v>
       </c>
       <c r="E18">
-        <v>12295</v>
+        <v>8665</v>
       </c>
       <c r="F18">
-        <v>2685</v>
+        <v>4917</v>
       </c>
       <c r="G18">
-        <v>48198</v>
+        <v>41715</v>
       </c>
       <c r="H18">
-        <v>100861</v>
+        <v>75143</v>
       </c>
       <c r="I18">
-        <v>14873</v>
+        <v>8234</v>
       </c>
       <c r="J18">
-        <v>15368</v>
+        <v>4408</v>
       </c>
       <c r="K18">
-        <v>454</v>
+        <v>768</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>-911</v>
+        <v>-11</v>
       </c>
       <c r="N18">
-        <v>42529</v>
+        <v>27573</v>
       </c>
       <c r="O18">
-        <v>73957</v>
+        <v>37417</v>
       </c>
       <c r="P18">
-        <v>19061</v>
+        <v>7211</v>
       </c>
       <c r="Q18">
-        <v>-2214</v>
+        <v>639</v>
       </c>
       <c r="R18">
-        <v>42035</v>
+        <v>38383</v>
       </c>
       <c r="S18">
         <v>0</v>
       </c>
       <c r="T18">
-        <v>26904</v>
+        <v>37726</v>
       </c>
       <c r="U18">
-        <v>11819</v>
+        <v>13302</v>
       </c>
       <c r="V18">
-        <v>744</v>
+        <v>1558</v>
       </c>
       <c r="W18">
-        <v>-304</v>
+        <v>-233</v>
       </c>
       <c r="X18">
-        <v>-2120</v>
+        <v>-508</v>
       </c>
       <c r="Y18">
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>-20</v>
+        <v>15</v>
       </c>
       <c r="AA18">
-        <v>1366</v>
+        <v>943</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42124</v>
+        <v>38472</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>1011</v>
+        <v>966</v>
       </c>
       <c r="D19">
-        <v>12977</v>
+        <v>21570</v>
       </c>
       <c r="E19">
-        <v>12320</v>
+        <v>9266</v>
       </c>
       <c r="F19">
-        <v>2562</v>
+        <v>5141</v>
       </c>
       <c r="G19">
-        <v>48883</v>
+        <v>42476</v>
       </c>
       <c r="H19">
-        <v>101396</v>
+        <v>76348</v>
       </c>
       <c r="I19">
-        <v>14923</v>
+        <v>8583</v>
       </c>
       <c r="J19">
-        <v>15464</v>
+        <v>4397</v>
       </c>
       <c r="K19">
-        <v>2979</v>
+        <v>733</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -2183,81 +2303,81 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>43186</v>
+        <v>28415</v>
       </c>
       <c r="O19">
-        <v>74227</v>
+        <v>38175</v>
       </c>
       <c r="P19">
-        <v>21058</v>
+        <v>7151</v>
       </c>
       <c r="Q19">
-        <v>1849</v>
+        <v>1060</v>
       </c>
       <c r="R19">
-        <v>42124</v>
+        <v>38472</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="T19">
-        <v>27169</v>
+        <v>38173</v>
       </c>
       <c r="U19">
-        <v>13568</v>
+        <v>14362</v>
       </c>
       <c r="V19">
-        <v>1464</v>
+        <v>2374</v>
       </c>
       <c r="W19">
-        <v>-291</v>
+        <v>-233</v>
       </c>
       <c r="X19">
-        <v>1186</v>
+        <v>-795</v>
       </c>
       <c r="Y19">
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>35</v>
+        <v>186</v>
       </c>
       <c r="AA19">
-        <v>1011</v>
+        <v>966</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42216</v>
+        <v>38564</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>854</v>
+        <v>73</v>
       </c>
       <c r="D20">
-        <v>12362</v>
+        <v>20759</v>
       </c>
       <c r="E20">
-        <v>12753</v>
+        <v>8764</v>
       </c>
       <c r="F20">
-        <v>2326</v>
+        <v>4817</v>
       </c>
       <c r="G20">
-        <v>51998</v>
+        <v>41702</v>
       </c>
       <c r="H20">
-        <v>107033</v>
+        <v>75416</v>
       </c>
       <c r="I20">
-        <v>15549</v>
+        <v>9070</v>
       </c>
       <c r="J20">
-        <v>14471</v>
+        <v>3397</v>
       </c>
       <c r="K20">
-        <v>7584</v>
+        <v>928</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -2266,81 +2386,81 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>49033</v>
+        <v>29175</v>
       </c>
       <c r="O20">
-        <v>79590</v>
+        <v>38030</v>
       </c>
       <c r="P20">
-        <v>25505</v>
+        <v>5772</v>
       </c>
       <c r="Q20">
-        <v>2403</v>
+        <v>83</v>
       </c>
       <c r="R20">
-        <v>42216</v>
+        <v>38564</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
       <c r="T20">
-        <v>27443</v>
+        <v>37386</v>
       </c>
       <c r="U20">
-        <v>16571</v>
+        <v>14445</v>
       </c>
       <c r="V20">
-        <v>1673</v>
+        <v>2210</v>
       </c>
       <c r="W20">
-        <v>-318</v>
+        <v>-231</v>
       </c>
       <c r="X20">
-        <v>3818</v>
+        <v>-1934</v>
       </c>
       <c r="Y20">
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="AA20">
-        <v>854</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42308</v>
+        <v>38656</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>416</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>22913</v>
       </c>
       <c r="E21">
-        <v>4825</v>
+        <v>9903</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>5381</v>
       </c>
       <c r="G21">
-        <v>51787</v>
+        <v>43334</v>
       </c>
       <c r="H21">
-        <v>106882</v>
+        <v>77317</v>
       </c>
       <c r="I21">
-        <v>10194</v>
+        <v>10223</v>
       </c>
       <c r="J21">
-        <v>6677</v>
+        <v>3392</v>
       </c>
       <c r="K21">
-        <v>34</v>
+        <v>649</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -2349,164 +2469,164 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>42191</v>
+        <v>31460</v>
       </c>
       <c r="O21">
-        <v>78731</v>
+        <v>40141</v>
       </c>
       <c r="P21">
-        <v>8871</v>
+        <v>5223</v>
       </c>
       <c r="Q21">
-        <v>0</v>
+        <v>-534</v>
       </c>
       <c r="R21">
-        <v>42308</v>
+        <v>38656</v>
       </c>
       <c r="S21">
-        <v>287000</v>
+        <v>150000</v>
       </c>
       <c r="T21">
-        <v>28151</v>
+        <v>37176</v>
       </c>
       <c r="U21">
-        <v>7584</v>
+        <v>13911</v>
       </c>
       <c r="V21">
-        <v>0</v>
+        <v>1886</v>
       </c>
       <c r="W21">
-        <v>0</v>
+        <v>-229</v>
       </c>
       <c r="X21">
-        <v>0</v>
+        <v>-1786</v>
       </c>
       <c r="Y21">
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>0</v>
+        <v>114</v>
       </c>
       <c r="AA21">
-        <v>0</v>
+        <v>416</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42400</v>
+        <v>38748</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>592</v>
+        <v>1227</v>
       </c>
       <c r="D22">
-        <v>12246</v>
+        <v>22659</v>
       </c>
       <c r="E22">
-        <v>4114</v>
+        <v>8679</v>
       </c>
       <c r="F22">
-        <v>2285</v>
+        <v>5267</v>
       </c>
       <c r="G22">
-        <v>15155</v>
+        <v>39178</v>
       </c>
       <c r="H22">
-        <v>25517</v>
+        <v>74413</v>
       </c>
       <c r="I22">
-        <v>9041</v>
+        <v>8932</v>
       </c>
       <c r="J22">
-        <v>6650</v>
+        <v>2416</v>
       </c>
       <c r="K22">
-        <v>19</v>
+        <v>611</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>-68</v>
       </c>
       <c r="M22">
-        <v>-2155</v>
+        <v>-231</v>
       </c>
       <c r="N22">
-        <v>16761</v>
+        <v>30677</v>
       </c>
       <c r="O22">
-        <v>30426</v>
+        <v>38607</v>
       </c>
       <c r="P22">
-        <v>6732</v>
+        <v>5048</v>
       </c>
       <c r="Q22">
-        <v>-13745</v>
+        <v>-1977</v>
       </c>
       <c r="R22">
-        <v>42400</v>
+        <v>38748</v>
       </c>
       <c r="S22">
         <v>0</v>
       </c>
       <c r="T22">
-        <v>-4909</v>
+        <v>35806</v>
       </c>
       <c r="U22">
-        <v>3688</v>
+        <v>11934</v>
       </c>
       <c r="V22">
-        <v>-102</v>
+        <v>1846</v>
       </c>
       <c r="W22">
-        <v>-221</v>
+        <v>-227</v>
       </c>
       <c r="X22">
-        <v>-13532</v>
+        <v>-2856</v>
       </c>
       <c r="Y22">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="Z22">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AA22">
-        <v>592</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42490</v>
+        <v>38837</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>629</v>
+        <v>1899</v>
       </c>
       <c r="D23">
-        <v>11588</v>
+        <v>22554</v>
       </c>
       <c r="E23">
-        <v>3884</v>
+        <v>9783</v>
       </c>
       <c r="F23">
-        <v>2250</v>
+        <v>5584</v>
       </c>
       <c r="G23">
-        <v>15385</v>
+        <v>42208</v>
       </c>
       <c r="H23">
-        <v>25523</v>
+        <v>77183</v>
       </c>
       <c r="I23">
-        <v>9099</v>
+        <v>10077</v>
       </c>
       <c r="J23">
-        <v>6636</v>
+        <v>2406</v>
       </c>
       <c r="K23">
-        <v>35</v>
+        <v>570</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -2515,81 +2635,81 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>16862</v>
+        <v>32457</v>
       </c>
       <c r="O23">
-        <v>30309</v>
+        <v>40129</v>
       </c>
       <c r="P23">
-        <v>6772</v>
+        <v>5015</v>
       </c>
       <c r="Q23">
-        <v>948</v>
+        <v>2098</v>
       </c>
       <c r="R23">
-        <v>42490</v>
+        <v>38837</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
       <c r="T23">
-        <v>-4786</v>
+        <v>37054</v>
       </c>
       <c r="U23">
-        <v>4636</v>
+        <v>14032</v>
       </c>
       <c r="V23">
-        <v>1579</v>
+        <v>3634</v>
       </c>
       <c r="W23">
-        <v>-213</v>
+        <v>-226</v>
       </c>
       <c r="X23">
-        <v>-487</v>
+        <v>-1038</v>
       </c>
       <c r="Y23">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="Z23">
-        <v>-119</v>
+        <v>10</v>
       </c>
       <c r="AA23">
-        <v>629</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42582</v>
+        <v>38929</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>783</v>
+        <v>1375</v>
       </c>
       <c r="D24">
-        <v>11892</v>
+        <v>21890</v>
       </c>
       <c r="E24">
-        <v>4008</v>
+        <v>9631</v>
       </c>
       <c r="F24">
-        <v>2172</v>
+        <v>5418</v>
       </c>
       <c r="G24">
-        <v>17402</v>
+        <v>44325</v>
       </c>
       <c r="H24">
-        <v>27224</v>
+        <v>79192</v>
       </c>
       <c r="I24">
-        <v>10402</v>
+        <v>10695</v>
       </c>
       <c r="J24">
-        <v>6635</v>
+        <v>2451</v>
       </c>
       <c r="K24">
-        <v>34</v>
+        <v>2235</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -2598,81 +2718,81 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>18114</v>
+        <v>34982</v>
       </c>
       <c r="O24">
-        <v>31150</v>
+        <v>42844</v>
       </c>
       <c r="P24">
-        <v>6835</v>
+        <v>6767</v>
       </c>
       <c r="Q24">
-        <v>1000</v>
+        <v>1949</v>
       </c>
       <c r="R24">
-        <v>42582</v>
+        <v>38929</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
       <c r="T24">
-        <v>-3926</v>
+        <v>36348</v>
       </c>
       <c r="U24">
-        <v>5636</v>
+        <v>15981</v>
       </c>
       <c r="V24">
-        <v>1071</v>
+        <v>2629</v>
       </c>
       <c r="W24">
-        <v>-212</v>
+        <v>-222</v>
       </c>
       <c r="X24">
-        <v>-210</v>
+        <v>-239</v>
       </c>
       <c r="Y24">
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="Z24">
-        <v>121</v>
+        <v>11</v>
       </c>
       <c r="AA24">
-        <v>783</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42674</v>
+        <v>39021</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>492</v>
+        <v>1697</v>
       </c>
       <c r="D25">
-        <v>12512</v>
+        <v>24555</v>
       </c>
       <c r="E25">
-        <v>4114</v>
+        <v>10873</v>
       </c>
       <c r="F25">
-        <v>2291</v>
+        <v>5962</v>
       </c>
       <c r="G25">
-        <v>18468</v>
+        <v>48264</v>
       </c>
       <c r="H25">
-        <v>28987</v>
+        <v>81981</v>
       </c>
       <c r="I25">
-        <v>11103</v>
+        <v>12102</v>
       </c>
       <c r="J25">
-        <v>6735</v>
+        <v>2490</v>
       </c>
       <c r="K25">
-        <v>27</v>
+        <v>624</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -2681,164 +2801,164 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>18808</v>
+        <v>35850</v>
       </c>
       <c r="O25">
-        <v>32876</v>
+        <v>43837</v>
       </c>
       <c r="P25">
-        <v>6813</v>
+        <v>5195</v>
       </c>
       <c r="Q25">
-        <v>652</v>
+        <v>419</v>
       </c>
       <c r="R25">
-        <v>42674</v>
+        <v>39021</v>
       </c>
       <c r="S25">
-        <v>49000</v>
+        <v>156000</v>
       </c>
       <c r="T25">
-        <v>-3889</v>
+        <v>38144</v>
       </c>
       <c r="U25">
-        <v>6288</v>
+        <v>16400</v>
       </c>
       <c r="V25">
-        <v>704</v>
+        <v>3244</v>
       </c>
       <c r="W25">
-        <v>-212</v>
+        <v>-219</v>
       </c>
       <c r="X25">
-        <v>-216</v>
+        <v>-1944</v>
       </c>
       <c r="Y25">
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>-4</v>
+        <v>19</v>
       </c>
       <c r="AA25">
-        <v>492</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42766</v>
+        <v>39113</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>611</v>
+        <v>1547</v>
       </c>
       <c r="D26">
-        <v>12684</v>
+        <v>25082</v>
       </c>
       <c r="E26">
-        <v>3478</v>
+        <v>10403</v>
       </c>
       <c r="F26">
-        <v>2248</v>
+        <v>5946</v>
       </c>
       <c r="G26">
-        <v>17775</v>
+        <v>42519</v>
       </c>
       <c r="H26">
-        <v>28192</v>
+        <v>81314</v>
       </c>
       <c r="I26">
-        <v>10951</v>
+        <v>11360</v>
       </c>
       <c r="J26">
-        <v>6696</v>
+        <v>2438</v>
       </c>
       <c r="K26">
-        <v>32</v>
+        <v>1889</v>
       </c>
       <c r="L26">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="M26">
-        <v>-24</v>
+        <v>-1056</v>
       </c>
       <c r="N26">
-        <v>18587</v>
+        <v>35044</v>
       </c>
       <c r="O26">
-        <v>32519</v>
+        <v>43271</v>
       </c>
       <c r="P26">
-        <v>6796</v>
+        <v>5775</v>
       </c>
       <c r="Q26">
-        <v>43</v>
+        <v>-6343</v>
       </c>
       <c r="R26">
-        <v>42766</v>
+        <v>39113</v>
       </c>
       <c r="S26">
         <v>0</v>
       </c>
       <c r="T26">
-        <v>-4327</v>
+        <v>38043</v>
       </c>
       <c r="U26">
-        <v>6331</v>
+        <v>10057</v>
       </c>
       <c r="V26">
-        <v>767</v>
+        <v>-22</v>
       </c>
       <c r="W26">
-        <v>-227</v>
+        <v>-218</v>
       </c>
       <c r="X26">
-        <v>-638</v>
+        <v>-1357</v>
       </c>
       <c r="Y26">
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="AA26">
-        <v>611</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42855</v>
+        <v>39202</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>559</v>
+        <v>1775</v>
       </c>
       <c r="D27">
-        <v>12385</v>
+        <v>25534</v>
       </c>
       <c r="E27">
-        <v>3771</v>
+        <v>11577</v>
       </c>
       <c r="F27">
-        <v>2383</v>
+        <v>6251</v>
       </c>
       <c r="G27">
-        <v>18302</v>
+        <v>43874</v>
       </c>
       <c r="H27">
-        <v>28686</v>
+        <v>83413</v>
       </c>
       <c r="I27">
-        <v>11079</v>
+        <v>11505</v>
       </c>
       <c r="J27">
-        <v>6710</v>
+        <v>3977</v>
       </c>
       <c r="K27">
-        <v>34</v>
+        <v>2682</v>
       </c>
       <c r="L27">
         <v>0</v>
@@ -2847,81 +2967,81 @@
         <v>0</v>
       </c>
       <c r="N27">
-        <v>18604</v>
+        <v>36913</v>
       </c>
       <c r="O27">
-        <v>32641</v>
+        <v>46927</v>
       </c>
       <c r="P27">
-        <v>6820</v>
+        <v>8337</v>
       </c>
       <c r="Q27">
-        <v>-108</v>
+        <v>2179</v>
       </c>
       <c r="R27">
-        <v>42855</v>
+        <v>39202</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
       <c r="T27">
-        <v>-3955</v>
+        <v>36486</v>
       </c>
       <c r="U27">
-        <v>6223</v>
+        <v>12236</v>
       </c>
       <c r="V27">
-        <v>455</v>
+        <v>4161</v>
       </c>
       <c r="W27">
-        <v>-224</v>
+        <v>-213</v>
       </c>
       <c r="X27">
-        <v>-408</v>
+        <v>-1263</v>
       </c>
       <c r="Y27">
         <v>0</v>
       </c>
       <c r="Z27">
-        <v>-1</v>
+        <v>250</v>
       </c>
       <c r="AA27">
-        <v>559</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42947</v>
+        <v>39294</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>696</v>
+        <v>1778</v>
       </c>
       <c r="D28">
-        <v>13060</v>
+        <v>25377</v>
       </c>
       <c r="E28">
-        <v>4233</v>
+        <v>11845</v>
       </c>
       <c r="F28">
-        <v>2427</v>
+        <v>6213</v>
       </c>
       <c r="G28">
-        <v>21443</v>
+        <v>45361</v>
       </c>
       <c r="H28">
-        <v>31934</v>
+        <v>85141</v>
       </c>
       <c r="I28">
-        <v>12804</v>
+        <v>11673</v>
       </c>
       <c r="J28">
-        <v>6744</v>
+        <v>4945</v>
       </c>
       <c r="K28">
-        <v>970</v>
+        <v>2960</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -2930,81 +3050,81 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>22060</v>
+        <v>37305</v>
       </c>
       <c r="O28">
-        <v>36273</v>
+        <v>48204</v>
       </c>
       <c r="P28">
-        <v>7806</v>
+        <v>8612</v>
       </c>
       <c r="Q28">
-        <v>744</v>
+        <v>214</v>
       </c>
       <c r="R28">
-        <v>42947</v>
+        <v>39294</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
       <c r="T28">
-        <v>-4339</v>
+        <v>36937</v>
       </c>
       <c r="U28">
-        <v>6967</v>
+        <v>12450</v>
       </c>
       <c r="V28">
-        <v>1775</v>
+        <v>1867</v>
       </c>
       <c r="W28">
-        <v>-222</v>
+        <v>-209</v>
       </c>
       <c r="X28">
-        <v>451</v>
+        <v>-1086</v>
       </c>
       <c r="Y28">
         <v>0</v>
       </c>
       <c r="Z28">
-        <v>-1035</v>
+        <v>38</v>
       </c>
       <c r="AA28">
-        <v>696</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43039</v>
+        <v>39386</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>660</v>
+        <v>2164</v>
       </c>
       <c r="D29">
-        <v>13927</v>
+        <v>28293</v>
       </c>
       <c r="E29">
-        <v>4414</v>
+        <v>13420</v>
       </c>
       <c r="F29">
-        <v>2520</v>
+        <v>6989</v>
       </c>
       <c r="G29">
-        <v>22318</v>
+        <v>47402</v>
       </c>
       <c r="H29">
-        <v>32913</v>
+        <v>88699</v>
       </c>
       <c r="I29">
-        <v>13279</v>
+        <v>11787</v>
       </c>
       <c r="J29">
-        <v>6759</v>
+        <v>4997</v>
       </c>
       <c r="K29">
-        <v>976</v>
+        <v>2511</v>
       </c>
       <c r="L29">
         <v>0</v>
@@ -3013,164 +3133,164 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>22412</v>
+        <v>39260</v>
       </c>
       <c r="O29">
-        <v>36321</v>
+        <v>50173</v>
       </c>
       <c r="P29">
-        <v>7831</v>
+        <v>8183</v>
       </c>
       <c r="Q29">
-        <v>30</v>
+        <v>-1157</v>
       </c>
       <c r="R29">
-        <v>43039</v>
+        <v>39386</v>
       </c>
       <c r="S29">
-        <v>49000</v>
+        <v>172000</v>
       </c>
       <c r="T29">
-        <v>-3408</v>
+        <v>38526</v>
       </c>
       <c r="U29">
-        <v>6997</v>
+        <v>11293</v>
       </c>
       <c r="V29">
-        <v>680</v>
+        <v>3609</v>
       </c>
       <c r="W29">
-        <v>-221</v>
+        <v>-206</v>
       </c>
       <c r="X29">
-        <v>-656</v>
+        <v>-1893</v>
       </c>
       <c r="Y29">
         <v>0</v>
       </c>
       <c r="Z29">
-        <v>-133</v>
+        <v>-225</v>
       </c>
       <c r="AA29">
-        <v>660</v>
+        <v>2164</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43131</v>
+        <v>39478</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>1938</v>
+        <v>2133</v>
       </c>
       <c r="D30">
-        <v>14517</v>
+        <v>28467</v>
       </c>
       <c r="E30">
-        <v>4396</v>
+        <v>12384</v>
       </c>
       <c r="F30">
-        <v>2582</v>
+        <v>7023</v>
       </c>
       <c r="G30">
-        <v>21217</v>
+        <v>44626</v>
       </c>
       <c r="H30">
-        <v>35245</v>
+        <v>88572</v>
       </c>
       <c r="I30">
-        <v>12848</v>
+        <v>11162</v>
       </c>
       <c r="J30">
-        <v>6391</v>
+        <v>5099</v>
       </c>
       <c r="K30">
-        <v>1003</v>
+        <v>1617</v>
       </c>
       <c r="L30">
-        <v>-224</v>
+        <v>0</v>
       </c>
       <c r="M30">
-        <v>-41</v>
+        <v>-1004</v>
       </c>
       <c r="N30">
-        <v>23349</v>
+        <v>36658</v>
       </c>
       <c r="O30">
-        <v>37987</v>
+        <v>50628</v>
       </c>
       <c r="P30">
-        <v>7921</v>
+        <v>7311</v>
       </c>
       <c r="Q30">
-        <v>-1522</v>
+        <v>-1390</v>
       </c>
       <c r="R30">
-        <v>43131</v>
+        <v>39478</v>
       </c>
       <c r="S30">
         <v>0</v>
       </c>
       <c r="T30">
-        <v>-2742</v>
+        <v>37944</v>
       </c>
       <c r="U30">
-        <v>5475</v>
+        <v>9903</v>
       </c>
       <c r="V30">
-        <v>996</v>
+        <v>3187</v>
       </c>
       <c r="W30">
-        <v>-230</v>
+        <v>-206</v>
       </c>
       <c r="X30">
-        <v>-795</v>
+        <v>-3876</v>
       </c>
       <c r="Y30">
         <v>0</v>
       </c>
       <c r="Z30">
-        <v>-129</v>
+        <v>86</v>
       </c>
       <c r="AA30">
-        <v>1938</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43220</v>
+        <v>39568</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>1058</v>
+        <v>2057</v>
       </c>
       <c r="D31">
-        <v>14003</v>
+        <v>28262</v>
       </c>
       <c r="E31">
-        <v>4605</v>
+        <v>13558</v>
       </c>
       <c r="F31">
-        <v>2702</v>
+        <v>7057</v>
       </c>
       <c r="G31">
-        <v>19433</v>
+        <v>47049</v>
       </c>
       <c r="H31">
-        <v>32087</v>
+        <v>91804</v>
       </c>
       <c r="I31">
-        <v>13054</v>
+        <v>12425</v>
       </c>
       <c r="J31">
-        <v>4516</v>
+        <v>7688</v>
       </c>
       <c r="K31">
-        <v>1080</v>
+        <v>624</v>
       </c>
       <c r="L31">
         <v>0</v>
@@ -3179,81 +3299,81 @@
         <v>0</v>
       </c>
       <c r="N31">
-        <v>23127</v>
+        <v>37146</v>
       </c>
       <c r="O31">
-        <v>33950</v>
+        <v>53651</v>
       </c>
       <c r="P31">
-        <v>6134</v>
+        <v>8399</v>
       </c>
       <c r="Q31">
-        <v>-1228</v>
+        <v>1688</v>
       </c>
       <c r="R31">
-        <v>43220</v>
+        <v>39568</v>
       </c>
       <c r="S31">
         <v>0</v>
       </c>
       <c r="T31">
-        <v>-1863</v>
+        <v>38153</v>
       </c>
       <c r="U31">
-        <v>4247</v>
+        <v>11591</v>
       </c>
       <c r="V31">
-        <v>1050</v>
+        <v>4765</v>
       </c>
       <c r="W31">
-        <v>-227</v>
+        <v>-197</v>
       </c>
       <c r="X31">
-        <v>-2899</v>
+        <v>-1504</v>
       </c>
       <c r="Y31">
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>170</v>
+        <v>27</v>
       </c>
       <c r="AA31">
-        <v>1058</v>
+        <v>2057</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43312</v>
+        <v>39660</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>880</v>
+        <v>2027</v>
       </c>
       <c r="D32">
-        <v>14586</v>
+        <v>28032</v>
       </c>
       <c r="E32">
-        <v>4615</v>
+        <v>13754</v>
       </c>
       <c r="F32">
-        <v>2688</v>
+        <v>6835</v>
       </c>
       <c r="G32">
-        <v>21776</v>
+        <v>51036</v>
       </c>
       <c r="H32">
-        <v>34254</v>
+        <v>95894</v>
       </c>
       <c r="I32">
-        <v>14245</v>
+        <v>14021</v>
       </c>
       <c r="J32">
-        <v>4525</v>
+        <v>6628</v>
       </c>
       <c r="K32">
-        <v>2134</v>
+        <v>2503</v>
       </c>
       <c r="L32">
         <v>0</v>
@@ -3262,81 +3382,81 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>25506</v>
+        <v>41900</v>
       </c>
       <c r="O32">
-        <v>36021</v>
+        <v>57399</v>
       </c>
       <c r="P32">
-        <v>7207</v>
+        <v>10219</v>
       </c>
       <c r="Q32">
-        <v>1948</v>
+        <v>3192</v>
       </c>
       <c r="R32">
-        <v>43312</v>
+        <v>39660</v>
       </c>
       <c r="S32">
         <v>0</v>
       </c>
       <c r="T32">
-        <v>-1767</v>
+        <v>38495</v>
       </c>
       <c r="U32">
-        <v>6195</v>
+        <v>14783</v>
       </c>
       <c r="V32">
-        <v>1514</v>
+        <v>3363</v>
       </c>
       <c r="W32">
-        <v>-223</v>
+        <v>-197</v>
       </c>
       <c r="X32">
-        <v>135</v>
+        <v>602</v>
       </c>
       <c r="Y32">
         <v>0</v>
       </c>
       <c r="Z32">
-        <v>227</v>
+        <v>13</v>
       </c>
       <c r="AA32">
-        <v>880</v>
+        <v>2027</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43404</v>
+        <v>39752</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>1451</v>
+        <v>2112</v>
       </c>
       <c r="D33">
-        <v>15366</v>
+        <v>33603</v>
       </c>
       <c r="E33">
-        <v>5113</v>
+        <v>16928</v>
       </c>
       <c r="F33">
-        <v>2697</v>
+        <v>7750</v>
       </c>
       <c r="G33">
-        <v>21387</v>
+        <v>51728</v>
       </c>
       <c r="H33">
-        <v>34622</v>
+        <v>113331</v>
       </c>
       <c r="I33">
-        <v>14816</v>
+        <v>14917</v>
       </c>
       <c r="J33">
-        <v>4547</v>
+        <v>7676</v>
       </c>
       <c r="K33">
-        <v>898</v>
+        <v>7502</v>
       </c>
       <c r="L33">
         <v>0</v>
@@ -3345,164 +3465,164 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>25131</v>
+        <v>52939</v>
       </c>
       <c r="O33">
-        <v>35261</v>
+        <v>74389</v>
       </c>
       <c r="P33">
-        <v>6010</v>
+        <v>17852</v>
       </c>
       <c r="Q33">
-        <v>-1029</v>
+        <v>-4630</v>
       </c>
       <c r="R33">
-        <v>43404</v>
+        <v>39752</v>
       </c>
       <c r="S33">
-        <v>55000</v>
+        <v>321000</v>
       </c>
       <c r="T33">
-        <v>-639</v>
+        <v>38942</v>
       </c>
       <c r="U33">
-        <v>5166</v>
+        <v>10153</v>
       </c>
       <c r="V33">
-        <v>968</v>
+        <v>3276</v>
       </c>
       <c r="W33">
-        <v>-219</v>
+        <v>-196</v>
       </c>
       <c r="X33">
-        <v>-2084</v>
+        <v>2758</v>
       </c>
       <c r="Y33">
         <v>0</v>
       </c>
       <c r="Z33">
-        <v>212</v>
+        <v>-24</v>
       </c>
       <c r="AA33">
-        <v>1451</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43496</v>
+        <v>39844</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>803</v>
+        <v>1856</v>
       </c>
       <c r="D34">
-        <v>14710</v>
+        <v>28807</v>
       </c>
       <c r="E34">
-        <v>5113</v>
+        <v>14769</v>
       </c>
       <c r="F34">
-        <v>2612</v>
+        <v>6817</v>
       </c>
       <c r="G34">
-        <v>18936</v>
+        <v>48881</v>
       </c>
       <c r="H34">
-        <v>32490</v>
+        <v>109634</v>
       </c>
       <c r="I34">
-        <v>14572</v>
+        <v>11231</v>
       </c>
       <c r="J34">
-        <v>4718</v>
+        <v>10259</v>
       </c>
       <c r="K34">
-        <v>38</v>
+        <v>7545</v>
       </c>
       <c r="L34">
-        <v>-855</v>
+        <v>0</v>
       </c>
       <c r="M34">
-        <v>-476</v>
+        <v>-69</v>
       </c>
       <c r="N34">
-        <v>24199</v>
+        <v>46987</v>
       </c>
       <c r="O34">
-        <v>34327</v>
+        <v>70047</v>
       </c>
       <c r="P34">
-        <v>5015</v>
+        <v>20458</v>
       </c>
       <c r="Q34">
-        <v>-1799</v>
+        <v>1036</v>
       </c>
       <c r="R34">
-        <v>43496</v>
+        <v>39844</v>
       </c>
       <c r="S34">
         <v>0</v>
       </c>
       <c r="T34">
-        <v>-1837</v>
+        <v>39587</v>
       </c>
       <c r="U34">
-        <v>3367</v>
+        <v>11189</v>
       </c>
       <c r="V34">
-        <v>862</v>
+        <v>1126</v>
       </c>
       <c r="W34">
-        <v>-249</v>
+        <v>-193</v>
       </c>
       <c r="X34">
-        <v>-2343</v>
+        <v>873</v>
       </c>
       <c r="Y34">
         <v>0</v>
       </c>
       <c r="Z34">
-        <v>275</v>
+        <v>46</v>
       </c>
       <c r="AA34">
-        <v>803</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43585</v>
+        <v>39933</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>782</v>
+        <v>1721</v>
       </c>
       <c r="D35">
-        <v>14036</v>
+        <v>27383</v>
       </c>
       <c r="E35">
-        <v>5414</v>
+        <v>14666</v>
       </c>
       <c r="F35">
-        <v>2729</v>
+        <v>6438</v>
       </c>
       <c r="G35">
-        <v>18285</v>
+        <v>47186</v>
       </c>
       <c r="H35">
-        <v>31946</v>
+        <v>108515</v>
       </c>
       <c r="I35">
-        <v>13839</v>
+        <v>11421</v>
       </c>
       <c r="J35">
-        <v>4757</v>
+        <v>13044</v>
       </c>
       <c r="K35">
-        <v>38</v>
+        <v>3054</v>
       </c>
       <c r="L35">
         <v>0</v>
@@ -3511,81 +3631,81 @@
         <v>0</v>
       </c>
       <c r="N35">
-        <v>23203</v>
+        <v>41583</v>
       </c>
       <c r="O35">
-        <v>33433</v>
+        <v>67973</v>
       </c>
       <c r="P35">
-        <v>5047</v>
+        <v>18746</v>
       </c>
       <c r="Q35">
-        <v>189</v>
+        <v>1662</v>
       </c>
       <c r="R35">
-        <v>43585</v>
+        <v>39933</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
       <c r="T35">
-        <v>-1487</v>
+        <v>40542</v>
       </c>
       <c r="U35">
-        <v>3556</v>
+        <v>12851</v>
       </c>
       <c r="V35">
-        <v>861</v>
+        <v>4964</v>
       </c>
       <c r="W35">
-        <v>-245</v>
+        <v>-192</v>
       </c>
       <c r="X35">
-        <v>-968</v>
+        <v>-2557</v>
       </c>
       <c r="Y35">
         <v>0</v>
       </c>
       <c r="Z35">
-        <v>410</v>
+        <v>2</v>
       </c>
       <c r="AA35">
-        <v>782</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43677</v>
+        <v>40025</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>1179</v>
+        <v>1671</v>
       </c>
       <c r="D36">
-        <v>14603</v>
+        <v>27585</v>
       </c>
       <c r="E36">
-        <v>5295</v>
+        <v>14735</v>
       </c>
       <c r="F36">
-        <v>2905</v>
+        <v>6554</v>
       </c>
       <c r="G36">
-        <v>19683</v>
+        <v>48842</v>
       </c>
       <c r="H36">
-        <v>32405</v>
+        <v>111072</v>
       </c>
       <c r="I36">
-        <v>14648</v>
+        <v>12778</v>
       </c>
       <c r="J36">
-        <v>4730</v>
+        <v>13959</v>
       </c>
       <c r="K36">
-        <v>33</v>
+        <v>678</v>
       </c>
       <c r="L36">
         <v>0</v>
@@ -3594,81 +3714,81 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>24579</v>
+        <v>41810</v>
       </c>
       <c r="O36">
-        <v>33536</v>
+        <v>69537</v>
       </c>
       <c r="P36">
-        <v>5058</v>
+        <v>17247</v>
       </c>
       <c r="Q36">
-        <v>1363</v>
+        <v>670</v>
       </c>
       <c r="R36">
-        <v>43677</v>
+        <v>40025</v>
       </c>
       <c r="S36">
         <v>0</v>
       </c>
       <c r="T36">
-        <v>-1131</v>
+        <v>41535</v>
       </c>
       <c r="U36">
-        <v>4919</v>
+        <v>13521</v>
       </c>
       <c r="V36">
-        <v>2343</v>
+        <v>3856</v>
       </c>
       <c r="W36">
-        <v>-240</v>
+        <v>-191</v>
       </c>
       <c r="X36">
-        <v>-791</v>
+        <v>-2196</v>
       </c>
       <c r="Y36">
         <v>0</v>
       </c>
       <c r="Z36">
-        <v>6</v>
+        <v>-50</v>
       </c>
       <c r="AA36">
-        <v>1179</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43769</v>
+        <v>40117</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>388</v>
+        <v>2412</v>
       </c>
       <c r="D37">
-        <v>15407</v>
+        <v>30777</v>
       </c>
       <c r="E37">
-        <v>6031</v>
+        <v>16537</v>
       </c>
       <c r="F37">
-        <v>2924</v>
+        <v>7113</v>
       </c>
       <c r="G37">
-        <v>20177</v>
+        <v>52539</v>
       </c>
       <c r="H37">
-        <v>33467</v>
+        <v>114799</v>
       </c>
       <c r="I37">
-        <v>14793</v>
+        <v>14809</v>
       </c>
       <c r="J37">
-        <v>4780</v>
+        <v>14030</v>
       </c>
       <c r="K37">
-        <v>50</v>
+        <v>707</v>
       </c>
       <c r="L37">
         <v>0</v>
@@ -3677,164 +3797,164 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>25293</v>
+        <v>43003</v>
       </c>
       <c r="O37">
-        <v>34660</v>
+        <v>74035</v>
       </c>
       <c r="P37">
-        <v>5137</v>
+        <v>15880</v>
       </c>
       <c r="Q37">
-        <v>-382</v>
+        <v>-242</v>
       </c>
       <c r="R37">
-        <v>43769</v>
+        <v>40117</v>
       </c>
       <c r="S37">
-        <v>56000</v>
+        <v>304000</v>
       </c>
       <c r="T37">
-        <v>-1193</v>
+        <v>40764</v>
       </c>
       <c r="U37">
-        <v>4537</v>
+        <v>13279</v>
       </c>
       <c r="V37">
-        <v>588</v>
+        <v>3433</v>
       </c>
       <c r="W37">
-        <v>-236</v>
+        <v>-190</v>
       </c>
       <c r="X37">
-        <v>-743</v>
+        <v>-2793</v>
       </c>
       <c r="Y37">
         <v>0</v>
       </c>
       <c r="Z37">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AA37">
-        <v>388</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43861</v>
+        <v>40209</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>678</v>
+        <v>2250</v>
       </c>
       <c r="D38">
-        <v>14618</v>
+        <v>31177</v>
       </c>
       <c r="E38">
-        <v>4857</v>
+        <v>14503</v>
       </c>
       <c r="F38">
-        <v>2872</v>
+        <v>7191</v>
       </c>
       <c r="G38">
-        <v>17477</v>
+        <v>51697</v>
       </c>
       <c r="H38">
-        <v>31656</v>
+        <v>113618</v>
       </c>
       <c r="I38">
-        <v>12808</v>
+        <v>13557</v>
       </c>
       <c r="J38">
-        <v>3932</v>
+        <v>14059</v>
       </c>
       <c r="K38">
-        <v>45</v>
+        <v>749</v>
       </c>
       <c r="L38">
         <v>0</v>
       </c>
       <c r="M38">
-        <v>-67</v>
+        <v>-80</v>
       </c>
       <c r="N38">
-        <v>23867</v>
+        <v>40873</v>
       </c>
       <c r="O38">
-        <v>33290</v>
+        <v>71727</v>
       </c>
       <c r="P38">
-        <v>6030</v>
+        <v>15921</v>
       </c>
       <c r="Q38">
-        <v>-332</v>
+        <v>268</v>
       </c>
       <c r="R38">
-        <v>43861</v>
+        <v>40209</v>
       </c>
       <c r="S38">
         <v>0</v>
       </c>
       <c r="T38">
-        <v>-1634</v>
+        <v>41891</v>
       </c>
       <c r="U38">
-        <v>4205</v>
+        <v>13547</v>
       </c>
       <c r="V38">
-        <v>1285</v>
+        <v>2407</v>
       </c>
       <c r="W38">
-        <v>-256</v>
+        <v>-189</v>
       </c>
       <c r="X38">
-        <v>-1119</v>
+        <v>-1428</v>
       </c>
       <c r="Y38">
-        <v>920</v>
+        <v>0</v>
       </c>
       <c r="Z38">
-        <v>-300</v>
+        <v>-9</v>
       </c>
       <c r="AA38">
-        <v>678</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43951</v>
+        <v>40298</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>764</v>
+        <v>2200</v>
       </c>
       <c r="D39">
-        <v>12469</v>
+        <v>30849</v>
       </c>
       <c r="E39">
-        <v>5146</v>
+        <v>14753</v>
       </c>
       <c r="F39">
-        <v>2493</v>
+        <v>7280</v>
       </c>
       <c r="G39">
-        <v>19660</v>
+        <v>51695</v>
       </c>
       <c r="H39">
-        <v>33773</v>
+        <v>115994</v>
       </c>
       <c r="I39">
-        <v>14195</v>
+        <v>13350</v>
       </c>
       <c r="J39">
-        <v>3941</v>
+        <v>13778</v>
       </c>
       <c r="K39">
-        <v>670</v>
+        <v>2506</v>
       </c>
       <c r="L39">
         <v>0</v>
@@ -3843,81 +3963,81 @@
         <v>0</v>
       </c>
       <c r="N39">
-        <v>25276</v>
+        <v>42271</v>
       </c>
       <c r="O39">
-        <v>34516</v>
+        <v>72182</v>
       </c>
       <c r="P39">
-        <v>6641</v>
+        <v>17712</v>
       </c>
       <c r="Q39">
-        <v>-151</v>
+        <v>584</v>
       </c>
       <c r="R39">
-        <v>43951</v>
+        <v>40298</v>
       </c>
       <c r="S39">
         <v>0</v>
       </c>
       <c r="T39">
-        <v>-743</v>
+        <v>43812</v>
       </c>
       <c r="U39">
-        <v>4054</v>
+        <v>14131</v>
       </c>
       <c r="V39">
-        <v>-510</v>
+        <v>3091</v>
       </c>
       <c r="W39">
-        <v>-252</v>
+        <v>-196</v>
       </c>
       <c r="X39">
-        <v>241</v>
+        <v>722</v>
       </c>
       <c r="Y39">
-        <v>899</v>
+        <v>0</v>
       </c>
       <c r="Z39">
-        <v>300</v>
+        <v>84</v>
       </c>
       <c r="AA39">
-        <v>764</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44043</v>
+        <v>40390</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>734</v>
+        <v>1773</v>
       </c>
       <c r="D40">
-        <v>14294</v>
+        <v>30729</v>
       </c>
       <c r="E40">
-        <v>5269</v>
+        <v>15621</v>
       </c>
       <c r="F40">
-        <v>2393</v>
+        <v>7364</v>
       </c>
       <c r="G40">
-        <v>20269</v>
+        <v>54365</v>
       </c>
       <c r="H40">
-        <v>34244</v>
+        <v>120017</v>
       </c>
       <c r="I40">
-        <v>14276</v>
+        <v>14885</v>
       </c>
       <c r="J40">
-        <v>5981</v>
+        <v>12285</v>
       </c>
       <c r="K40">
-        <v>44</v>
+        <v>5638</v>
       </c>
       <c r="L40">
         <v>0</v>
@@ -3926,81 +4046,81 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>25026</v>
+        <v>49288</v>
       </c>
       <c r="O40">
-        <v>36230</v>
+        <v>77182</v>
       </c>
       <c r="P40">
-        <v>7418</v>
+        <v>20127</v>
       </c>
       <c r="Q40">
-        <v>625</v>
+        <v>587</v>
       </c>
       <c r="R40">
-        <v>44043</v>
+        <v>40390</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
       <c r="T40">
-        <v>-1986</v>
+        <v>42835</v>
       </c>
       <c r="U40">
-        <v>4679</v>
+        <v>14718</v>
       </c>
       <c r="V40">
-        <v>1667</v>
+        <v>3273</v>
       </c>
       <c r="W40">
-        <v>-251</v>
+        <v>-205</v>
       </c>
       <c r="X40">
-        <v>-491</v>
+        <v>-333</v>
       </c>
       <c r="Y40">
-        <v>904</v>
+        <v>0</v>
       </c>
       <c r="Z40">
-        <v>-230</v>
+        <v>72</v>
       </c>
       <c r="AA40">
-        <v>734</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44135</v>
+        <v>40482</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>668</v>
+        <v>2538</v>
       </c>
       <c r="D41">
-        <v>15258</v>
+        <v>33278</v>
       </c>
       <c r="E41">
-        <v>5381</v>
+        <v>18481</v>
       </c>
       <c r="F41">
-        <v>2679</v>
+        <v>8156</v>
       </c>
       <c r="G41">
-        <v>20648</v>
+        <v>54184</v>
       </c>
       <c r="H41">
-        <v>34681</v>
+        <v>124503</v>
       </c>
       <c r="I41">
-        <v>14704</v>
+        <v>14365</v>
       </c>
       <c r="J41">
-        <v>5528</v>
+        <v>15347</v>
       </c>
       <c r="K41">
-        <v>41</v>
+        <v>4830</v>
       </c>
       <c r="L41">
         <v>0</v>
@@ -4009,128 +4129,3448 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>26220</v>
+        <v>49403</v>
       </c>
       <c r="O41">
-        <v>36909</v>
+        <v>83722</v>
       </c>
       <c r="P41">
-        <v>7399</v>
+        <v>22393</v>
       </c>
       <c r="Q41">
-        <v>185</v>
+        <v>-3789</v>
       </c>
       <c r="R41">
-        <v>44135</v>
+        <v>40482</v>
       </c>
       <c r="S41">
-        <v>53000</v>
+        <v>324600</v>
       </c>
       <c r="T41">
-        <v>-2228</v>
+        <v>40781</v>
       </c>
       <c r="U41">
-        <v>4864</v>
+        <v>10929</v>
       </c>
       <c r="V41">
-        <v>1874</v>
+        <v>3151</v>
       </c>
       <c r="W41">
-        <v>-238</v>
+        <v>-153</v>
       </c>
       <c r="X41">
-        <v>-1604</v>
+        <v>-1874</v>
       </c>
       <c r="Y41">
-        <v>922</v>
+        <v>0</v>
       </c>
       <c r="Z41">
-        <v>-46</v>
+        <v>2</v>
       </c>
       <c r="AA41">
-        <v>668</v>
+        <v>2538</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44227</v>
+        <v>40574</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>2605</v>
+      </c>
+      <c r="D42">
+        <v>32302</v>
+      </c>
+      <c r="E42">
+        <v>16552</v>
+      </c>
+      <c r="F42">
+        <v>7973</v>
+      </c>
+      <c r="G42">
+        <v>51404</v>
+      </c>
+      <c r="H42">
+        <v>119933</v>
+      </c>
+      <c r="I42">
+        <v>13453</v>
+      </c>
+      <c r="J42">
+        <v>17088</v>
+      </c>
+      <c r="K42">
+        <v>1141</v>
+      </c>
+      <c r="L42">
+        <v>-3710</v>
+      </c>
+      <c r="M42">
+        <v>-138</v>
+      </c>
+      <c r="N42">
+        <v>43610</v>
+      </c>
+      <c r="O42">
+        <v>78386</v>
+      </c>
+      <c r="P42">
+        <v>20469</v>
+      </c>
+      <c r="Q42">
+        <v>-995</v>
+      </c>
+      <c r="R42">
+        <v>40574</v>
+      </c>
+      <c r="S42">
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <v>41547</v>
+      </c>
+      <c r="U42">
+        <v>9934</v>
+      </c>
+      <c r="V42">
+        <v>3070</v>
+      </c>
+      <c r="W42">
+        <v>-175</v>
+      </c>
+      <c r="X42">
+        <v>-3702</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>34</v>
+      </c>
+      <c r="AA42">
+        <v>2605</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>40663</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>2304</v>
+      </c>
+      <c r="D43">
+        <v>31632</v>
+      </c>
+      <c r="E43">
+        <v>18621</v>
+      </c>
+      <c r="F43">
+        <v>7800</v>
+      </c>
+      <c r="G43">
+        <v>56075</v>
+      </c>
+      <c r="H43">
+        <v>125127</v>
+      </c>
+      <c r="I43">
+        <v>14222</v>
+      </c>
+      <c r="J43">
+        <v>14575</v>
+      </c>
+      <c r="K43">
+        <v>3904</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>51370</v>
+      </c>
+      <c r="O43">
+        <v>83332</v>
+      </c>
+      <c r="P43">
+        <v>22981</v>
+      </c>
+      <c r="Q43">
+        <v>2804</v>
+      </c>
+      <c r="R43">
+        <v>40663</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>41795</v>
+      </c>
+      <c r="U43">
+        <v>12738</v>
+      </c>
+      <c r="V43">
+        <v>3962</v>
+      </c>
+      <c r="W43">
+        <v>-182</v>
+      </c>
+      <c r="X43">
+        <v>61</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>23</v>
+      </c>
+      <c r="AA43">
+        <v>2304</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>40755</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>1926</v>
+      </c>
+      <c r="D44">
+        <v>31189</v>
+      </c>
+      <c r="E44">
+        <v>18121</v>
+      </c>
+      <c r="F44">
+        <v>7288</v>
+      </c>
+      <c r="G44">
+        <v>56279</v>
+      </c>
+      <c r="H44">
+        <v>124917</v>
+      </c>
+      <c r="I44">
+        <v>14489</v>
+      </c>
+      <c r="J44">
+        <v>19097</v>
+      </c>
+      <c r="K44">
+        <v>3343</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>48938</v>
+      </c>
+      <c r="O44">
+        <v>85699</v>
+      </c>
+      <c r="P44">
+        <v>25763</v>
+      </c>
+      <c r="Q44">
+        <v>215</v>
+      </c>
+      <c r="R44">
+        <v>40755</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>39218</v>
+      </c>
+      <c r="U44">
+        <v>12953</v>
+      </c>
+      <c r="V44">
+        <v>3207</v>
+      </c>
+      <c r="W44">
+        <v>-248</v>
+      </c>
+      <c r="X44">
+        <v>-2081</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>2</v>
+      </c>
+      <c r="AA44">
+        <v>1926</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>40847</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>239</v>
+      </c>
+      <c r="D45">
+        <v>32122</v>
+      </c>
+      <c r="E45">
+        <v>18224</v>
+      </c>
+      <c r="F45">
+        <v>6868</v>
+      </c>
+      <c r="G45">
+        <v>51021</v>
+      </c>
+      <c r="H45">
+        <v>129517</v>
+      </c>
+      <c r="I45">
+        <v>14750</v>
+      </c>
+      <c r="J45">
+        <v>22622</v>
+      </c>
+      <c r="K45">
+        <v>3738</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>50442</v>
+      </c>
+      <c r="O45">
+        <v>90513</v>
+      </c>
+      <c r="P45">
+        <v>30705</v>
+      </c>
+      <c r="Q45">
+        <v>-4910</v>
+      </c>
+      <c r="R45">
+        <v>40847</v>
+      </c>
+      <c r="S45">
+        <v>349600</v>
+      </c>
+      <c r="T45">
+        <v>39004</v>
+      </c>
+      <c r="U45">
+        <v>7543</v>
+      </c>
+      <c r="V45">
+        <v>2400</v>
+      </c>
+      <c r="W45">
+        <v>-239</v>
+      </c>
+      <c r="X45">
+        <v>4156</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>-87</v>
+      </c>
+      <c r="AA45">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>40939</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>1468</v>
+      </c>
+      <c r="D46">
+        <v>30036</v>
+      </c>
+      <c r="E46">
+        <v>15892</v>
+      </c>
+      <c r="F46">
+        <v>6757</v>
+      </c>
+      <c r="G46">
+        <v>48749</v>
+      </c>
+      <c r="H46">
+        <v>126596</v>
+      </c>
+      <c r="I46">
+        <v>12375</v>
+      </c>
+      <c r="J46">
+        <v>25517</v>
+      </c>
+      <c r="K46">
+        <v>1097</v>
+      </c>
+      <c r="L46">
+        <v>-2607</v>
+      </c>
+      <c r="M46">
+        <v>-100</v>
+      </c>
+      <c r="N46">
+        <v>44293</v>
+      </c>
+      <c r="O46">
+        <v>87024</v>
+      </c>
+      <c r="P46">
+        <v>30955</v>
+      </c>
+      <c r="Q46">
+        <v>70</v>
+      </c>
+      <c r="R46">
+        <v>40939</v>
+      </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="T46">
+        <v>39572</v>
+      </c>
+      <c r="U46">
+        <v>8113</v>
+      </c>
+      <c r="V46">
+        <v>1193</v>
+      </c>
+      <c r="W46">
+        <v>-244</v>
+      </c>
+      <c r="X46">
+        <v>-372</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>96</v>
+      </c>
+      <c r="AA46">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>41029</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>1593</v>
+      </c>
+      <c r="D47">
+        <v>30693</v>
+      </c>
+      <c r="E47">
+        <v>16609</v>
+      </c>
+      <c r="F47">
+        <v>7152</v>
+      </c>
+      <c r="G47">
+        <v>49689</v>
+      </c>
+      <c r="H47">
+        <v>127689</v>
+      </c>
+      <c r="I47">
+        <v>12900</v>
+      </c>
+      <c r="J47">
+        <v>25869</v>
+      </c>
+      <c r="K47">
+        <v>906</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>42799</v>
+      </c>
+      <c r="O47">
+        <v>85992</v>
+      </c>
+      <c r="P47">
+        <v>30121</v>
+      </c>
+      <c r="Q47">
+        <v>198</v>
+      </c>
+      <c r="R47">
+        <v>41029</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>41697</v>
+      </c>
+      <c r="U47">
+        <v>8311</v>
+      </c>
+      <c r="V47">
+        <v>2473</v>
+      </c>
+      <c r="W47">
+        <v>-251</v>
+      </c>
+      <c r="X47">
+        <v>-1008</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>-315</v>
+      </c>
+      <c r="AA47">
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>41121</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>-8857</v>
+      </c>
+      <c r="D48">
+        <v>29669</v>
+      </c>
+      <c r="E48">
+        <v>15686</v>
+      </c>
+      <c r="F48">
+        <v>6849</v>
+      </c>
+      <c r="G48">
+        <v>50237</v>
+      </c>
+      <c r="H48">
+        <v>117556</v>
+      </c>
+      <c r="I48">
+        <v>12554</v>
+      </c>
+      <c r="J48">
+        <v>24100</v>
+      </c>
+      <c r="K48">
+        <v>1105</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>44919</v>
+      </c>
+      <c r="O48">
+        <v>85546</v>
+      </c>
+      <c r="P48">
+        <v>29781</v>
+      </c>
+      <c r="Q48">
+        <v>1198</v>
+      </c>
+      <c r="R48">
+        <v>41121</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>32010</v>
+      </c>
+      <c r="U48">
+        <v>9509</v>
+      </c>
+      <c r="V48">
+        <v>2846</v>
+      </c>
+      <c r="W48">
+        <v>-260</v>
+      </c>
+      <c r="X48">
+        <v>-823</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>-58</v>
+      </c>
+      <c r="AA48">
+        <v>-8857</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>41213</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>-6854</v>
+      </c>
+      <c r="D49">
+        <v>29959</v>
+      </c>
+      <c r="E49">
+        <v>16407</v>
+      </c>
+      <c r="F49">
+        <v>7054</v>
+      </c>
+      <c r="G49">
+        <v>50637</v>
+      </c>
+      <c r="H49">
+        <v>108768</v>
+      </c>
+      <c r="I49">
+        <v>13350</v>
+      </c>
+      <c r="J49">
+        <v>21789</v>
+      </c>
+      <c r="K49">
+        <v>438</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>46666</v>
+      </c>
+      <c r="O49">
+        <v>85935</v>
+      </c>
+      <c r="P49">
+        <v>28465</v>
+      </c>
+      <c r="Q49">
+        <v>1792</v>
+      </c>
+      <c r="R49">
+        <v>41213</v>
+      </c>
+      <c r="S49">
+        <v>331800</v>
+      </c>
+      <c r="T49">
+        <v>22833</v>
+      </c>
+      <c r="U49">
+        <v>10601</v>
+      </c>
+      <c r="V49">
+        <v>4059</v>
+      </c>
+      <c r="W49">
+        <v>-260</v>
+      </c>
+      <c r="X49">
+        <v>-1657</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>-33</v>
+      </c>
+      <c r="AA49">
+        <v>-6854</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>41305</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>1232</v>
+      </c>
+      <c r="D50">
+        <v>28359</v>
+      </c>
+      <c r="E50">
+        <v>14236</v>
+      </c>
+      <c r="F50">
+        <v>6422</v>
+      </c>
+      <c r="G50">
+        <v>49552</v>
+      </c>
+      <c r="H50">
+        <v>106701</v>
+      </c>
+      <c r="I50">
+        <v>11660</v>
+      </c>
+      <c r="J50">
+        <v>21752</v>
+      </c>
+      <c r="K50">
+        <v>819</v>
+      </c>
+      <c r="L50">
+        <v>-105</v>
+      </c>
+      <c r="M50">
+        <v>-114</v>
+      </c>
+      <c r="N50">
+        <v>44386</v>
+      </c>
+      <c r="O50">
+        <v>83411</v>
+      </c>
+      <c r="P50">
+        <v>28246</v>
+      </c>
+      <c r="Q50">
+        <v>1288</v>
+      </c>
+      <c r="R50">
+        <v>41305</v>
+      </c>
+      <c r="S50">
+        <v>0</v>
+      </c>
+      <c r="T50">
+        <v>23290</v>
+      </c>
+      <c r="U50">
+        <v>11589</v>
+      </c>
+      <c r="V50">
+        <v>2562</v>
+      </c>
+      <c r="W50">
+        <v>-258</v>
+      </c>
+      <c r="X50">
+        <v>-630</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>-138</v>
+      </c>
+      <c r="AA50">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>41394</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>1077</v>
+      </c>
+      <c r="D51">
+        <v>27582</v>
+      </c>
+      <c r="E51">
+        <v>14606</v>
+      </c>
+      <c r="F51">
+        <v>6527</v>
+      </c>
+      <c r="G51">
+        <v>49571</v>
+      </c>
+      <c r="H51">
+        <v>106254</v>
+      </c>
+      <c r="I51">
+        <v>12313</v>
+      </c>
+      <c r="J51">
+        <v>19863</v>
+      </c>
+      <c r="K51">
+        <v>766</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>44658</v>
+      </c>
+      <c r="O51">
+        <v>82322</v>
+      </c>
+      <c r="P51">
+        <v>26801</v>
+      </c>
+      <c r="Q51">
+        <v>651</v>
+      </c>
+      <c r="R51">
+        <v>41394</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>23932</v>
+      </c>
+      <c r="U51">
+        <v>12540</v>
+      </c>
+      <c r="V51">
+        <v>3556</v>
+      </c>
+      <c r="W51">
+        <v>-283</v>
+      </c>
+      <c r="X51">
+        <v>-2351</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>233</v>
+      </c>
+      <c r="AA51">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>41486</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>1390</v>
+      </c>
+      <c r="D52">
+        <v>27226</v>
+      </c>
+      <c r="E52">
+        <v>14336</v>
+      </c>
+      <c r="F52">
+        <v>6367</v>
+      </c>
+      <c r="G52">
+        <v>49958</v>
+      </c>
+      <c r="H52">
+        <v>105800</v>
+      </c>
+      <c r="I52">
+        <v>13293</v>
+      </c>
+      <c r="J52">
+        <v>17268</v>
+      </c>
+      <c r="K52">
+        <v>367</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>46012</v>
+      </c>
+      <c r="O52">
+        <v>80822</v>
+      </c>
+      <c r="P52">
+        <v>24892</v>
+      </c>
+      <c r="Q52">
+        <v>11</v>
+      </c>
+      <c r="R52">
+        <v>41486</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>24978</v>
+      </c>
+      <c r="U52">
+        <v>12451</v>
+      </c>
+      <c r="V52">
+        <v>2674</v>
+      </c>
+      <c r="W52">
+        <v>-280</v>
+      </c>
+      <c r="X52">
+        <v>-2002</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>-14</v>
+      </c>
+      <c r="AA52">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>41578</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>1414</v>
+      </c>
+      <c r="D53">
+        <v>29131</v>
+      </c>
+      <c r="E53">
+        <v>15876</v>
+      </c>
+      <c r="F53">
+        <v>6472</v>
+      </c>
+      <c r="G53">
+        <v>50364</v>
+      </c>
+      <c r="H53">
+        <v>105676</v>
+      </c>
+      <c r="I53">
+        <v>14019</v>
+      </c>
+      <c r="J53">
+        <v>16715</v>
+      </c>
+      <c r="K53">
+        <v>385</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>45521</v>
+      </c>
+      <c r="O53">
+        <v>78020</v>
+      </c>
+      <c r="P53">
+        <v>22694</v>
+      </c>
+      <c r="Q53">
+        <v>-1088</v>
+      </c>
+      <c r="R53">
+        <v>41578</v>
+      </c>
+      <c r="S53">
+        <v>317500</v>
+      </c>
+      <c r="T53">
+        <v>27656</v>
+      </c>
+      <c r="U53">
+        <v>11466</v>
+      </c>
+      <c r="V53">
+        <v>2816</v>
+      </c>
+      <c r="W53">
+        <v>-284</v>
+      </c>
+      <c r="X53">
+        <v>-2960</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>-171</v>
+      </c>
+      <c r="AA53">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>41670</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>1425</v>
+      </c>
+      <c r="D54">
+        <v>28154</v>
+      </c>
+      <c r="E54">
+        <v>13492</v>
+      </c>
+      <c r="F54">
+        <v>6479</v>
+      </c>
+      <c r="G54">
+        <v>50684</v>
+      </c>
+      <c r="H54">
+        <v>105025</v>
+      </c>
+      <c r="I54">
+        <v>12640</v>
+      </c>
+      <c r="J54">
+        <v>18087</v>
+      </c>
+      <c r="K54">
+        <v>739</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>-45</v>
+      </c>
+      <c r="N54">
+        <v>43611</v>
+      </c>
+      <c r="O54">
+        <v>76876</v>
+      </c>
+      <c r="P54">
+        <v>24708</v>
+      </c>
+      <c r="Q54">
+        <v>4002</v>
+      </c>
+      <c r="R54">
+        <v>41670</v>
+      </c>
+      <c r="S54">
+        <v>0</v>
+      </c>
+      <c r="T54">
+        <v>28149</v>
+      </c>
+      <c r="U54">
+        <v>15414</v>
+      </c>
+      <c r="V54">
+        <v>2990</v>
+      </c>
+      <c r="W54">
+        <v>-278</v>
+      </c>
+      <c r="X54">
+        <v>1229</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>330</v>
+      </c>
+      <c r="AA54">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>41759</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>1273</v>
+      </c>
+      <c r="D55">
+        <v>27309</v>
+      </c>
+      <c r="E55">
+        <v>14288</v>
+      </c>
+      <c r="F55">
+        <v>6605</v>
+      </c>
+      <c r="G55">
+        <v>49883</v>
+      </c>
+      <c r="H55">
+        <v>103972</v>
+      </c>
+      <c r="I55">
+        <v>13521</v>
+      </c>
+      <c r="J55">
+        <v>17301</v>
+      </c>
+      <c r="K55">
+        <v>812</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>43280</v>
+      </c>
+      <c r="O55">
+        <v>75390</v>
+      </c>
+      <c r="P55">
+        <v>22697</v>
+      </c>
+      <c r="Q55">
+        <v>-1069</v>
+      </c>
+      <c r="R55">
+        <v>41759</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>28582</v>
+      </c>
+      <c r="U55">
+        <v>14249</v>
+      </c>
+      <c r="V55">
+        <v>2995</v>
+      </c>
+      <c r="W55">
+        <v>-298</v>
+      </c>
+      <c r="X55">
+        <v>-3087</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>-237</v>
+      </c>
+      <c r="AA55">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>41851</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>985</v>
+      </c>
+      <c r="D56">
+        <v>27585</v>
+      </c>
+      <c r="E56">
+        <v>14198</v>
+      </c>
+      <c r="F56">
+        <v>6611</v>
+      </c>
+      <c r="G56">
+        <v>49287</v>
+      </c>
+      <c r="H56">
+        <v>103170</v>
+      </c>
+      <c r="I56">
+        <v>15141</v>
+      </c>
+      <c r="J56">
+        <v>17233</v>
+      </c>
+      <c r="K56">
+        <v>817</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>42476</v>
+      </c>
+      <c r="O56">
+        <v>74268</v>
+      </c>
+      <c r="P56">
+        <v>19938</v>
+      </c>
+      <c r="Q56">
+        <v>-622</v>
+      </c>
+      <c r="R56">
+        <v>41851</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>28902</v>
+      </c>
+      <c r="U56">
+        <v>13612</v>
+      </c>
+      <c r="V56">
+        <v>3647</v>
+      </c>
+      <c r="W56">
+        <v>-299</v>
+      </c>
+      <c r="X56">
+        <v>-3465</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>124</v>
+      </c>
+      <c r="AA56">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>41943</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>1330</v>
+      </c>
+      <c r="D57">
+        <v>28406</v>
+      </c>
+      <c r="E57">
+        <v>13832</v>
+      </c>
+      <c r="F57">
+        <v>6981</v>
+      </c>
+      <c r="G57">
+        <v>50145</v>
+      </c>
+      <c r="H57">
+        <v>103206</v>
+      </c>
+      <c r="I57">
+        <v>15903</v>
+      </c>
+      <c r="J57">
+        <v>16094</v>
+      </c>
+      <c r="K57">
+        <v>129</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>43735</v>
+      </c>
+      <c r="O57">
+        <v>76079</v>
+      </c>
+      <c r="P57">
+        <v>19580</v>
+      </c>
+      <c r="Q57">
+        <v>659</v>
+      </c>
+      <c r="R57">
+        <v>41943</v>
+      </c>
+      <c r="S57">
+        <v>302000</v>
+      </c>
+      <c r="T57">
+        <v>27127</v>
+      </c>
+      <c r="U57">
+        <v>14181</v>
+      </c>
+      <c r="V57">
+        <v>2701</v>
+      </c>
+      <c r="W57">
+        <v>-309</v>
+      </c>
+      <c r="X57">
+        <v>-1248</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>44</v>
+      </c>
+      <c r="AA57">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>42035</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>1366</v>
+      </c>
+      <c r="D58">
+        <v>13858</v>
+      </c>
+      <c r="E58">
+        <v>12295</v>
+      </c>
+      <c r="F58">
+        <v>2685</v>
+      </c>
+      <c r="G58">
+        <v>48198</v>
+      </c>
+      <c r="H58">
+        <v>100861</v>
+      </c>
+      <c r="I58">
+        <v>14873</v>
+      </c>
+      <c r="J58">
+        <v>15368</v>
+      </c>
+      <c r="K58">
+        <v>454</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>-911</v>
+      </c>
+      <c r="N58">
+        <v>42529</v>
+      </c>
+      <c r="O58">
+        <v>73957</v>
+      </c>
+      <c r="P58">
+        <v>19061</v>
+      </c>
+      <c r="Q58">
+        <v>-2214</v>
+      </c>
+      <c r="R58">
+        <v>42035</v>
+      </c>
+      <c r="S58">
+        <v>0</v>
+      </c>
+      <c r="T58">
+        <v>26904</v>
+      </c>
+      <c r="U58">
+        <v>11819</v>
+      </c>
+      <c r="V58">
+        <v>744</v>
+      </c>
+      <c r="W58">
+        <v>-304</v>
+      </c>
+      <c r="X58">
+        <v>-2120</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>-20</v>
+      </c>
+      <c r="AA58">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>42124</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>1011</v>
+      </c>
+      <c r="D59">
+        <v>12977</v>
+      </c>
+      <c r="E59">
+        <v>12320</v>
+      </c>
+      <c r="F59">
+        <v>2562</v>
+      </c>
+      <c r="G59">
+        <v>48883</v>
+      </c>
+      <c r="H59">
+        <v>101396</v>
+      </c>
+      <c r="I59">
+        <v>14923</v>
+      </c>
+      <c r="J59">
+        <v>15464</v>
+      </c>
+      <c r="K59">
+        <v>2979</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>43186</v>
+      </c>
+      <c r="O59">
+        <v>74227</v>
+      </c>
+      <c r="P59">
+        <v>21058</v>
+      </c>
+      <c r="Q59">
+        <v>1849</v>
+      </c>
+      <c r="R59">
+        <v>42124</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>27169</v>
+      </c>
+      <c r="U59">
+        <v>13568</v>
+      </c>
+      <c r="V59">
+        <v>1464</v>
+      </c>
+      <c r="W59">
+        <v>-291</v>
+      </c>
+      <c r="X59">
+        <v>1186</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>35</v>
+      </c>
+      <c r="AA59">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>42216</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>854</v>
+      </c>
+      <c r="D60">
+        <v>12362</v>
+      </c>
+      <c r="E60">
+        <v>12753</v>
+      </c>
+      <c r="F60">
+        <v>2326</v>
+      </c>
+      <c r="G60">
+        <v>51998</v>
+      </c>
+      <c r="H60">
+        <v>107033</v>
+      </c>
+      <c r="I60">
+        <v>15549</v>
+      </c>
+      <c r="J60">
+        <v>14471</v>
+      </c>
+      <c r="K60">
+        <v>7584</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>49033</v>
+      </c>
+      <c r="O60">
+        <v>79590</v>
+      </c>
+      <c r="P60">
+        <v>25505</v>
+      </c>
+      <c r="Q60">
+        <v>2403</v>
+      </c>
+      <c r="R60">
+        <v>42216</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>27443</v>
+      </c>
+      <c r="U60">
+        <v>16571</v>
+      </c>
+      <c r="V60">
+        <v>1673</v>
+      </c>
+      <c r="W60">
+        <v>-318</v>
+      </c>
+      <c r="X60">
+        <v>3818</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>51</v>
+      </c>
+      <c r="AA60">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>42308</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>4825</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>51787</v>
+      </c>
+      <c r="H61">
+        <v>106882</v>
+      </c>
+      <c r="I61">
+        <v>10194</v>
+      </c>
+      <c r="J61">
+        <v>6677</v>
+      </c>
+      <c r="K61">
+        <v>34</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>42191</v>
+      </c>
+      <c r="O61">
+        <v>78731</v>
+      </c>
+      <c r="P61">
+        <v>8871</v>
+      </c>
+      <c r="Q61">
+        <v>0</v>
+      </c>
+      <c r="R61">
+        <v>42308</v>
+      </c>
+      <c r="S61">
+        <v>287000</v>
+      </c>
+      <c r="T61">
+        <v>28151</v>
+      </c>
+      <c r="U61">
+        <v>7584</v>
+      </c>
+      <c r="V61">
+        <v>0</v>
+      </c>
+      <c r="W61">
+        <v>0</v>
+      </c>
+      <c r="X61">
+        <v>0</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+      <c r="AA61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>42400</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>592</v>
+      </c>
+      <c r="D62">
+        <v>12246</v>
+      </c>
+      <c r="E62">
+        <v>4114</v>
+      </c>
+      <c r="F62">
+        <v>2285</v>
+      </c>
+      <c r="G62">
+        <v>15155</v>
+      </c>
+      <c r="H62">
+        <v>25517</v>
+      </c>
+      <c r="I62">
+        <v>9041</v>
+      </c>
+      <c r="J62">
+        <v>6650</v>
+      </c>
+      <c r="K62">
+        <v>19</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>-2155</v>
+      </c>
+      <c r="N62">
+        <v>16761</v>
+      </c>
+      <c r="O62">
+        <v>30426</v>
+      </c>
+      <c r="P62">
+        <v>6732</v>
+      </c>
+      <c r="Q62">
+        <v>-13745</v>
+      </c>
+      <c r="R62">
+        <v>42400</v>
+      </c>
+      <c r="S62">
+        <v>0</v>
+      </c>
+      <c r="T62">
+        <v>-4909</v>
+      </c>
+      <c r="U62">
+        <v>3688</v>
+      </c>
+      <c r="V62">
+        <v>-102</v>
+      </c>
+      <c r="W62">
+        <v>-221</v>
+      </c>
+      <c r="X62">
+        <v>-13532</v>
+      </c>
+      <c r="Y62">
+        <v>33</v>
+      </c>
+      <c r="Z62">
+        <v>9</v>
+      </c>
+      <c r="AA62">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>42490</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>629</v>
+      </c>
+      <c r="D63">
+        <v>11588</v>
+      </c>
+      <c r="E63">
+        <v>3884</v>
+      </c>
+      <c r="F63">
+        <v>2250</v>
+      </c>
+      <c r="G63">
+        <v>15385</v>
+      </c>
+      <c r="H63">
+        <v>25523</v>
+      </c>
+      <c r="I63">
+        <v>9099</v>
+      </c>
+      <c r="J63">
+        <v>6636</v>
+      </c>
+      <c r="K63">
+        <v>35</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>16862</v>
+      </c>
+      <c r="O63">
+        <v>30309</v>
+      </c>
+      <c r="P63">
+        <v>6772</v>
+      </c>
+      <c r="Q63">
+        <v>948</v>
+      </c>
+      <c r="R63">
+        <v>42490</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>-4786</v>
+      </c>
+      <c r="U63">
+        <v>4636</v>
+      </c>
+      <c r="V63">
+        <v>1579</v>
+      </c>
+      <c r="W63">
+        <v>-213</v>
+      </c>
+      <c r="X63">
+        <v>-487</v>
+      </c>
+      <c r="Y63">
+        <v>72</v>
+      </c>
+      <c r="Z63">
+        <v>-119</v>
+      </c>
+      <c r="AA63">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>42582</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>783</v>
+      </c>
+      <c r="D64">
+        <v>11892</v>
+      </c>
+      <c r="E64">
+        <v>4008</v>
+      </c>
+      <c r="F64">
+        <v>2172</v>
+      </c>
+      <c r="G64">
+        <v>17402</v>
+      </c>
+      <c r="H64">
+        <v>27224</v>
+      </c>
+      <c r="I64">
+        <v>10402</v>
+      </c>
+      <c r="J64">
+        <v>6635</v>
+      </c>
+      <c r="K64">
+        <v>34</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>18114</v>
+      </c>
+      <c r="O64">
+        <v>31150</v>
+      </c>
+      <c r="P64">
+        <v>6835</v>
+      </c>
+      <c r="Q64">
+        <v>1000</v>
+      </c>
+      <c r="R64">
+        <v>42582</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>-3926</v>
+      </c>
+      <c r="U64">
+        <v>5636</v>
+      </c>
+      <c r="V64">
+        <v>1071</v>
+      </c>
+      <c r="W64">
+        <v>-212</v>
+      </c>
+      <c r="X64">
+        <v>-210</v>
+      </c>
+      <c r="Y64">
+        <v>125</v>
+      </c>
+      <c r="Z64">
+        <v>121</v>
+      </c>
+      <c r="AA64">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>42674</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>492</v>
+      </c>
+      <c r="D65">
+        <v>12512</v>
+      </c>
+      <c r="E65">
+        <v>4114</v>
+      </c>
+      <c r="F65">
+        <v>2291</v>
+      </c>
+      <c r="G65">
+        <v>18468</v>
+      </c>
+      <c r="H65">
+        <v>28987</v>
+      </c>
+      <c r="I65">
+        <v>11103</v>
+      </c>
+      <c r="J65">
+        <v>6735</v>
+      </c>
+      <c r="K65">
+        <v>27</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>18808</v>
+      </c>
+      <c r="O65">
+        <v>32876</v>
+      </c>
+      <c r="P65">
+        <v>6813</v>
+      </c>
+      <c r="Q65">
+        <v>652</v>
+      </c>
+      <c r="R65">
+        <v>42674</v>
+      </c>
+      <c r="S65">
+        <v>49000</v>
+      </c>
+      <c r="T65">
+        <v>-3889</v>
+      </c>
+      <c r="U65">
+        <v>6288</v>
+      </c>
+      <c r="V65">
+        <v>704</v>
+      </c>
+      <c r="W65">
+        <v>-212</v>
+      </c>
+      <c r="X65">
+        <v>-216</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>-4</v>
+      </c>
+      <c r="AA65">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>42766</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>611</v>
+      </c>
+      <c r="D66">
+        <v>12684</v>
+      </c>
+      <c r="E66">
+        <v>3478</v>
+      </c>
+      <c r="F66">
+        <v>2248</v>
+      </c>
+      <c r="G66">
+        <v>17775</v>
+      </c>
+      <c r="H66">
+        <v>28192</v>
+      </c>
+      <c r="I66">
+        <v>10951</v>
+      </c>
+      <c r="J66">
+        <v>6696</v>
+      </c>
+      <c r="K66">
+        <v>32</v>
+      </c>
+      <c r="L66">
+        <v>-3</v>
+      </c>
+      <c r="M66">
+        <v>-24</v>
+      </c>
+      <c r="N66">
+        <v>18587</v>
+      </c>
+      <c r="O66">
+        <v>32519</v>
+      </c>
+      <c r="P66">
+        <v>6796</v>
+      </c>
+      <c r="Q66">
+        <v>43</v>
+      </c>
+      <c r="R66">
+        <v>42766</v>
+      </c>
+      <c r="S66">
+        <v>0</v>
+      </c>
+      <c r="T66">
+        <v>-4327</v>
+      </c>
+      <c r="U66">
+        <v>6331</v>
+      </c>
+      <c r="V66">
+        <v>767</v>
+      </c>
+      <c r="W66">
+        <v>-227</v>
+      </c>
+      <c r="X66">
+        <v>-638</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+      <c r="AA66">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>42855</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <v>559</v>
+      </c>
+      <c r="D67">
+        <v>12385</v>
+      </c>
+      <c r="E67">
+        <v>3771</v>
+      </c>
+      <c r="F67">
+        <v>2383</v>
+      </c>
+      <c r="G67">
+        <v>18302</v>
+      </c>
+      <c r="H67">
+        <v>28686</v>
+      </c>
+      <c r="I67">
+        <v>11079</v>
+      </c>
+      <c r="J67">
+        <v>6710</v>
+      </c>
+      <c r="K67">
+        <v>34</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>18604</v>
+      </c>
+      <c r="O67">
+        <v>32641</v>
+      </c>
+      <c r="P67">
+        <v>6820</v>
+      </c>
+      <c r="Q67">
+        <v>-108</v>
+      </c>
+      <c r="R67">
+        <v>42855</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>-3955</v>
+      </c>
+      <c r="U67">
+        <v>6223</v>
+      </c>
+      <c r="V67">
+        <v>455</v>
+      </c>
+      <c r="W67">
+        <v>-224</v>
+      </c>
+      <c r="X67">
+        <v>-408</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>-1</v>
+      </c>
+      <c r="AA67">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>42947</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>696</v>
+      </c>
+      <c r="D68">
+        <v>13060</v>
+      </c>
+      <c r="E68">
+        <v>4233</v>
+      </c>
+      <c r="F68">
+        <v>2427</v>
+      </c>
+      <c r="G68">
+        <v>21443</v>
+      </c>
+      <c r="H68">
+        <v>31934</v>
+      </c>
+      <c r="I68">
+        <v>12804</v>
+      </c>
+      <c r="J68">
+        <v>6744</v>
+      </c>
+      <c r="K68">
+        <v>970</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>22060</v>
+      </c>
+      <c r="O68">
+        <v>36273</v>
+      </c>
+      <c r="P68">
+        <v>7806</v>
+      </c>
+      <c r="Q68">
+        <v>744</v>
+      </c>
+      <c r="R68">
+        <v>42947</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>-4339</v>
+      </c>
+      <c r="U68">
+        <v>6967</v>
+      </c>
+      <c r="V68">
+        <v>1775</v>
+      </c>
+      <c r="W68">
+        <v>-222</v>
+      </c>
+      <c r="X68">
+        <v>451</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>-1035</v>
+      </c>
+      <c r="AA68">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>43039</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
+        <v>660</v>
+      </c>
+      <c r="D69">
+        <v>13927</v>
+      </c>
+      <c r="E69">
+        <v>4414</v>
+      </c>
+      <c r="F69">
+        <v>2520</v>
+      </c>
+      <c r="G69">
+        <v>22318</v>
+      </c>
+      <c r="H69">
+        <v>32913</v>
+      </c>
+      <c r="I69">
+        <v>13279</v>
+      </c>
+      <c r="J69">
+        <v>6759</v>
+      </c>
+      <c r="K69">
+        <v>976</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>22412</v>
+      </c>
+      <c r="O69">
+        <v>36321</v>
+      </c>
+      <c r="P69">
+        <v>7831</v>
+      </c>
+      <c r="Q69">
+        <v>30</v>
+      </c>
+      <c r="R69">
+        <v>43039</v>
+      </c>
+      <c r="S69">
+        <v>49000</v>
+      </c>
+      <c r="T69">
+        <v>-3408</v>
+      </c>
+      <c r="U69">
+        <v>6997</v>
+      </c>
+      <c r="V69">
+        <v>680</v>
+      </c>
+      <c r="W69">
+        <v>-221</v>
+      </c>
+      <c r="X69">
+        <v>-656</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>-133</v>
+      </c>
+      <c r="AA69">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>43131</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70">
+        <v>1938</v>
+      </c>
+      <c r="D70">
+        <v>14517</v>
+      </c>
+      <c r="E70">
+        <v>4396</v>
+      </c>
+      <c r="F70">
+        <v>2582</v>
+      </c>
+      <c r="G70">
+        <v>21217</v>
+      </c>
+      <c r="H70">
+        <v>35245</v>
+      </c>
+      <c r="I70">
+        <v>12848</v>
+      </c>
+      <c r="J70">
+        <v>6391</v>
+      </c>
+      <c r="K70">
+        <v>1003</v>
+      </c>
+      <c r="L70">
+        <v>-224</v>
+      </c>
+      <c r="M70">
+        <v>-41</v>
+      </c>
+      <c r="N70">
+        <v>23349</v>
+      </c>
+      <c r="O70">
+        <v>37987</v>
+      </c>
+      <c r="P70">
+        <v>7921</v>
+      </c>
+      <c r="Q70">
+        <v>-1522</v>
+      </c>
+      <c r="R70">
+        <v>43131</v>
+      </c>
+      <c r="S70">
+        <v>0</v>
+      </c>
+      <c r="T70">
+        <v>-2742</v>
+      </c>
+      <c r="U70">
+        <v>5475</v>
+      </c>
+      <c r="V70">
+        <v>996</v>
+      </c>
+      <c r="W70">
+        <v>-230</v>
+      </c>
+      <c r="X70">
+        <v>-795</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>-129</v>
+      </c>
+      <c r="AA70">
+        <v>1938</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>43220</v>
+      </c>
+      <c r="B71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71">
+        <v>1058</v>
+      </c>
+      <c r="D71">
+        <v>14003</v>
+      </c>
+      <c r="E71">
+        <v>4605</v>
+      </c>
+      <c r="F71">
+        <v>2702</v>
+      </c>
+      <c r="G71">
+        <v>19433</v>
+      </c>
+      <c r="H71">
+        <v>32087</v>
+      </c>
+      <c r="I71">
+        <v>13054</v>
+      </c>
+      <c r="J71">
+        <v>4516</v>
+      </c>
+      <c r="K71">
+        <v>1080</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>23127</v>
+      </c>
+      <c r="O71">
+        <v>33950</v>
+      </c>
+      <c r="P71">
+        <v>6134</v>
+      </c>
+      <c r="Q71">
+        <v>-1228</v>
+      </c>
+      <c r="R71">
+        <v>43220</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>-1863</v>
+      </c>
+      <c r="U71">
+        <v>4247</v>
+      </c>
+      <c r="V71">
+        <v>1050</v>
+      </c>
+      <c r="W71">
+        <v>-227</v>
+      </c>
+      <c r="X71">
+        <v>-2899</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>170</v>
+      </c>
+      <c r="AA71">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>43312</v>
+      </c>
+      <c r="B72" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72">
+        <v>880</v>
+      </c>
+      <c r="D72">
+        <v>14586</v>
+      </c>
+      <c r="E72">
+        <v>4615</v>
+      </c>
+      <c r="F72">
+        <v>2688</v>
+      </c>
+      <c r="G72">
+        <v>21776</v>
+      </c>
+      <c r="H72">
+        <v>34254</v>
+      </c>
+      <c r="I72">
+        <v>14245</v>
+      </c>
+      <c r="J72">
+        <v>4525</v>
+      </c>
+      <c r="K72">
+        <v>2134</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>25506</v>
+      </c>
+      <c r="O72">
+        <v>36021</v>
+      </c>
+      <c r="P72">
+        <v>7207</v>
+      </c>
+      <c r="Q72">
+        <v>1948</v>
+      </c>
+      <c r="R72">
+        <v>43312</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>-1767</v>
+      </c>
+      <c r="U72">
+        <v>6195</v>
+      </c>
+      <c r="V72">
+        <v>1514</v>
+      </c>
+      <c r="W72">
+        <v>-223</v>
+      </c>
+      <c r="X72">
+        <v>135</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>227</v>
+      </c>
+      <c r="AA72">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>43404</v>
+      </c>
+      <c r="B73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73">
+        <v>1451</v>
+      </c>
+      <c r="D73">
+        <v>15366</v>
+      </c>
+      <c r="E73">
+        <v>5113</v>
+      </c>
+      <c r="F73">
+        <v>2697</v>
+      </c>
+      <c r="G73">
+        <v>21387</v>
+      </c>
+      <c r="H73">
+        <v>34622</v>
+      </c>
+      <c r="I73">
+        <v>14816</v>
+      </c>
+      <c r="J73">
+        <v>4547</v>
+      </c>
+      <c r="K73">
+        <v>898</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>25131</v>
+      </c>
+      <c r="O73">
+        <v>35261</v>
+      </c>
+      <c r="P73">
+        <v>6010</v>
+      </c>
+      <c r="Q73">
+        <v>-1029</v>
+      </c>
+      <c r="R73">
+        <v>43404</v>
+      </c>
+      <c r="S73">
+        <v>55000</v>
+      </c>
+      <c r="T73">
+        <v>-639</v>
+      </c>
+      <c r="U73">
+        <v>5166</v>
+      </c>
+      <c r="V73">
+        <v>968</v>
+      </c>
+      <c r="W73">
+        <v>-219</v>
+      </c>
+      <c r="X73">
+        <v>-2084</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>212</v>
+      </c>
+      <c r="AA73">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>43496</v>
+      </c>
+      <c r="B74" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74">
+        <v>803</v>
+      </c>
+      <c r="D74">
+        <v>14710</v>
+      </c>
+      <c r="E74">
+        <v>5113</v>
+      </c>
+      <c r="F74">
+        <v>2612</v>
+      </c>
+      <c r="G74">
+        <v>18936</v>
+      </c>
+      <c r="H74">
+        <v>32490</v>
+      </c>
+      <c r="I74">
+        <v>14572</v>
+      </c>
+      <c r="J74">
+        <v>4718</v>
+      </c>
+      <c r="K74">
+        <v>38</v>
+      </c>
+      <c r="L74">
+        <v>-855</v>
+      </c>
+      <c r="M74">
+        <v>-476</v>
+      </c>
+      <c r="N74">
+        <v>24199</v>
+      </c>
+      <c r="O74">
+        <v>34327</v>
+      </c>
+      <c r="P74">
+        <v>5015</v>
+      </c>
+      <c r="Q74">
+        <v>-1799</v>
+      </c>
+      <c r="R74">
+        <v>43496</v>
+      </c>
+      <c r="S74">
+        <v>0</v>
+      </c>
+      <c r="T74">
+        <v>-1837</v>
+      </c>
+      <c r="U74">
+        <v>3367</v>
+      </c>
+      <c r="V74">
+        <v>862</v>
+      </c>
+      <c r="W74">
+        <v>-249</v>
+      </c>
+      <c r="X74">
+        <v>-2343</v>
+      </c>
+      <c r="Y74">
+        <v>0</v>
+      </c>
+      <c r="Z74">
+        <v>275</v>
+      </c>
+      <c r="AA74">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>43585</v>
+      </c>
+      <c r="B75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <v>782</v>
+      </c>
+      <c r="D75">
+        <v>14036</v>
+      </c>
+      <c r="E75">
+        <v>5414</v>
+      </c>
+      <c r="F75">
+        <v>2729</v>
+      </c>
+      <c r="G75">
+        <v>18285</v>
+      </c>
+      <c r="H75">
+        <v>31946</v>
+      </c>
+      <c r="I75">
+        <v>13839</v>
+      </c>
+      <c r="J75">
+        <v>4757</v>
+      </c>
+      <c r="K75">
+        <v>38</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>23203</v>
+      </c>
+      <c r="O75">
+        <v>33433</v>
+      </c>
+      <c r="P75">
+        <v>5047</v>
+      </c>
+      <c r="Q75">
+        <v>189</v>
+      </c>
+      <c r="R75">
+        <v>43585</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>-1487</v>
+      </c>
+      <c r="U75">
+        <v>3556</v>
+      </c>
+      <c r="V75">
+        <v>861</v>
+      </c>
+      <c r="W75">
+        <v>-245</v>
+      </c>
+      <c r="X75">
+        <v>-968</v>
+      </c>
+      <c r="Y75">
+        <v>0</v>
+      </c>
+      <c r="Z75">
+        <v>410</v>
+      </c>
+      <c r="AA75">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>43677</v>
+      </c>
+      <c r="B76" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76">
+        <v>1179</v>
+      </c>
+      <c r="D76">
+        <v>14603</v>
+      </c>
+      <c r="E76">
+        <v>5295</v>
+      </c>
+      <c r="F76">
+        <v>2905</v>
+      </c>
+      <c r="G76">
+        <v>19683</v>
+      </c>
+      <c r="H76">
+        <v>32405</v>
+      </c>
+      <c r="I76">
+        <v>14648</v>
+      </c>
+      <c r="J76">
+        <v>4730</v>
+      </c>
+      <c r="K76">
+        <v>33</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>24579</v>
+      </c>
+      <c r="O76">
+        <v>33536</v>
+      </c>
+      <c r="P76">
+        <v>5058</v>
+      </c>
+      <c r="Q76">
+        <v>1363</v>
+      </c>
+      <c r="R76">
+        <v>43677</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>-1131</v>
+      </c>
+      <c r="U76">
+        <v>4919</v>
+      </c>
+      <c r="V76">
+        <v>2343</v>
+      </c>
+      <c r="W76">
+        <v>-240</v>
+      </c>
+      <c r="X76">
+        <v>-791</v>
+      </c>
+      <c r="Y76">
+        <v>0</v>
+      </c>
+      <c r="Z76">
+        <v>6</v>
+      </c>
+      <c r="AA76">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>43769</v>
+      </c>
+      <c r="B77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77">
+        <v>388</v>
+      </c>
+      <c r="D77">
+        <v>15407</v>
+      </c>
+      <c r="E77">
+        <v>6031</v>
+      </c>
+      <c r="F77">
+        <v>2924</v>
+      </c>
+      <c r="G77">
+        <v>20177</v>
+      </c>
+      <c r="H77">
+        <v>33467</v>
+      </c>
+      <c r="I77">
+        <v>14793</v>
+      </c>
+      <c r="J77">
+        <v>4780</v>
+      </c>
+      <c r="K77">
+        <v>50</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>25293</v>
+      </c>
+      <c r="O77">
+        <v>34660</v>
+      </c>
+      <c r="P77">
+        <v>5137</v>
+      </c>
+      <c r="Q77">
+        <v>-382</v>
+      </c>
+      <c r="R77">
+        <v>43769</v>
+      </c>
+      <c r="S77">
+        <v>56000</v>
+      </c>
+      <c r="T77">
+        <v>-1193</v>
+      </c>
+      <c r="U77">
+        <v>4537</v>
+      </c>
+      <c r="V77">
+        <v>588</v>
+      </c>
+      <c r="W77">
+        <v>-236</v>
+      </c>
+      <c r="X77">
+        <v>-743</v>
+      </c>
+      <c r="Y77">
+        <v>0</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+      <c r="AA77">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>43861</v>
+      </c>
+      <c r="B78" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78">
+        <v>678</v>
+      </c>
+      <c r="D78">
+        <v>14618</v>
+      </c>
+      <c r="E78">
+        <v>4857</v>
+      </c>
+      <c r="F78">
+        <v>2872</v>
+      </c>
+      <c r="G78">
+        <v>17477</v>
+      </c>
+      <c r="H78">
+        <v>31656</v>
+      </c>
+      <c r="I78">
+        <v>12808</v>
+      </c>
+      <c r="J78">
+        <v>3932</v>
+      </c>
+      <c r="K78">
+        <v>45</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>-67</v>
+      </c>
+      <c r="N78">
+        <v>23867</v>
+      </c>
+      <c r="O78">
+        <v>33290</v>
+      </c>
+      <c r="P78">
+        <v>6030</v>
+      </c>
+      <c r="Q78">
+        <v>-332</v>
+      </c>
+      <c r="R78">
+        <v>43861</v>
+      </c>
+      <c r="S78">
+        <v>0</v>
+      </c>
+      <c r="T78">
+        <v>-1634</v>
+      </c>
+      <c r="U78">
+        <v>4205</v>
+      </c>
+      <c r="V78">
+        <v>1285</v>
+      </c>
+      <c r="W78">
+        <v>-256</v>
+      </c>
+      <c r="X78">
+        <v>-1119</v>
+      </c>
+      <c r="Y78">
+        <v>920</v>
+      </c>
+      <c r="Z78">
+        <v>-300</v>
+      </c>
+      <c r="AA78">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>43951</v>
+      </c>
+      <c r="B79" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79">
+        <v>764</v>
+      </c>
+      <c r="D79">
+        <v>12469</v>
+      </c>
+      <c r="E79">
+        <v>5146</v>
+      </c>
+      <c r="F79">
+        <v>2493</v>
+      </c>
+      <c r="G79">
+        <v>19660</v>
+      </c>
+      <c r="H79">
+        <v>33773</v>
+      </c>
+      <c r="I79">
+        <v>14195</v>
+      </c>
+      <c r="J79">
+        <v>3941</v>
+      </c>
+      <c r="K79">
+        <v>670</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>25276</v>
+      </c>
+      <c r="O79">
+        <v>34516</v>
+      </c>
+      <c r="P79">
+        <v>6641</v>
+      </c>
+      <c r="Q79">
+        <v>-151</v>
+      </c>
+      <c r="R79">
+        <v>43951</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>-743</v>
+      </c>
+      <c r="U79">
+        <v>4054</v>
+      </c>
+      <c r="V79">
+        <v>-510</v>
+      </c>
+      <c r="W79">
+        <v>-252</v>
+      </c>
+      <c r="X79">
+        <v>241</v>
+      </c>
+      <c r="Y79">
+        <v>899</v>
+      </c>
+      <c r="Z79">
+        <v>300</v>
+      </c>
+      <c r="AA79">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>44043</v>
+      </c>
+      <c r="B80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80">
+        <v>734</v>
+      </c>
+      <c r="D80">
+        <v>14294</v>
+      </c>
+      <c r="E80">
+        <v>5269</v>
+      </c>
+      <c r="F80">
+        <v>2393</v>
+      </c>
+      <c r="G80">
+        <v>20269</v>
+      </c>
+      <c r="H80">
+        <v>34244</v>
+      </c>
+      <c r="I80">
+        <v>14276</v>
+      </c>
+      <c r="J80">
+        <v>5981</v>
+      </c>
+      <c r="K80">
+        <v>44</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>25026</v>
+      </c>
+      <c r="O80">
+        <v>36230</v>
+      </c>
+      <c r="P80">
+        <v>7418</v>
+      </c>
+      <c r="Q80">
+        <v>625</v>
+      </c>
+      <c r="R80">
+        <v>44043</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>-1986</v>
+      </c>
+      <c r="U80">
+        <v>4679</v>
+      </c>
+      <c r="V80">
+        <v>1667</v>
+      </c>
+      <c r="W80">
+        <v>-251</v>
+      </c>
+      <c r="X80">
+        <v>-491</v>
+      </c>
+      <c r="Y80">
+        <v>904</v>
+      </c>
+      <c r="Z80">
+        <v>-230</v>
+      </c>
+      <c r="AA80">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>44135</v>
+      </c>
+      <c r="B81" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81">
+        <v>668</v>
+      </c>
+      <c r="D81">
+        <v>15258</v>
+      </c>
+      <c r="E81">
+        <v>5381</v>
+      </c>
+      <c r="F81">
+        <v>2679</v>
+      </c>
+      <c r="G81">
+        <v>20648</v>
+      </c>
+      <c r="H81">
+        <v>34681</v>
+      </c>
+      <c r="I81">
+        <v>14704</v>
+      </c>
+      <c r="J81">
+        <v>5528</v>
+      </c>
+      <c r="K81">
+        <v>41</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>26220</v>
+      </c>
+      <c r="O81">
+        <v>36909</v>
+      </c>
+      <c r="P81">
+        <v>7399</v>
+      </c>
+      <c r="Q81">
+        <v>185</v>
+      </c>
+      <c r="R81">
+        <v>44135</v>
+      </c>
+      <c r="S81">
+        <v>53000</v>
+      </c>
+      <c r="T81">
+        <v>-2228</v>
+      </c>
+      <c r="U81">
+        <v>4864</v>
+      </c>
+      <c r="V81">
+        <v>1874</v>
+      </c>
+      <c r="W81">
+        <v>-238</v>
+      </c>
+      <c r="X81">
+        <v>-1604</v>
+      </c>
+      <c r="Y81">
+        <v>922</v>
+      </c>
+      <c r="Z81">
+        <v>-46</v>
+      </c>
+      <c r="AA81">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A82" s="1">
+        <v>44227</v>
+      </c>
+      <c r="B82" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82">
         <v>1068</v>
       </c>
-      <c r="D42">
+      <c r="D82">
         <v>15646</v>
       </c>
-      <c r="E42">
+      <c r="E82">
         <v>5273</v>
       </c>
-      <c r="F42">
+      <c r="F82">
         <v>3324</v>
       </c>
-      <c r="G42">
+      <c r="G82">
         <v>20438</v>
       </c>
-      <c r="H42">
+      <c r="H82">
         <v>34737</v>
       </c>
-      <c r="I42">
+      <c r="I82">
         <v>14960</v>
       </c>
-      <c r="J42">
-        <v>4939</v>
-      </c>
-      <c r="K42">
-        <v>1238</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
+      <c r="J82">
+        <v>4944</v>
+      </c>
+      <c r="K82">
+        <v>33</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
         <v>-68</v>
       </c>
-      <c r="N42">
+      <c r="N82">
         <v>27880</v>
       </c>
-      <c r="O42">
+      <c r="O82">
         <v>37972</v>
       </c>
-      <c r="P42">
-        <v>6177</v>
-      </c>
-      <c r="Q42">
+      <c r="P82">
+        <v>7381</v>
+      </c>
+      <c r="Q82">
         <v>-704</v>
       </c>
-      <c r="R42">
+      <c r="R82">
         <v>44227</v>
       </c>
-      <c r="S42">
-        <v>0</v>
-      </c>
-      <c r="T42">
+      <c r="S82">
+        <v>0</v>
+      </c>
+      <c r="T82">
         <v>-3235</v>
       </c>
-      <c r="U42">
+      <c r="U82">
         <v>4160</v>
       </c>
-      <c r="V42">
+      <c r="V82">
         <v>1022</v>
       </c>
-      <c r="W42">
+      <c r="W82">
         <v>-250</v>
       </c>
-      <c r="X42">
+      <c r="X82">
         <v>-1723</v>
       </c>
-      <c r="Y42">
-        <v>0</v>
-      </c>
-      <c r="Z42">
+      <c r="Y82">
+        <v>903</v>
+      </c>
+      <c r="Z82">
         <v>273</v>
       </c>
-      <c r="AA42">
+      <c r="AA82">
         <v>1068</v>
       </c>
     </row>
